--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_NOx.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_NOx.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_NOx</t>
+  </si>
+  <si>
+    <t>02_taxi_NOx</t>
+  </si>
+  <si>
+    <t>03_van_NOx</t>
+  </si>
+  <si>
+    <t>04_bus_NOx</t>
+  </si>
+  <si>
+    <t>05_LightTruck_NOx</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_NOx</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_NOx</t>
+  </si>
+  <si>
+    <t>Total_NOx (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1298 +397,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_NOx</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_NOx</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_NOx</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_NOx</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_NOx</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_NOx</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_NOx (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>215.5803468552398</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.4444025026902079</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.4569305411783583</v>
+      </c>
+      <c r="D2">
         <v>203.4375458787929</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>14.73013912860389</v>
+      </c>
+      <c r="F2">
         <v>295.0224555298552</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>110.9422435645373</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>9.61160738560074</v>
       </c>
-      <c r="H2" t="n">
-        <v>835.0386017167161</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>849.7812688838083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>224.1598830904339</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.3897068100514131</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>0.4006929361102527</v>
+      </c>
+      <c r="D3">
         <v>186.4844170555602</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>14.73013912860389</v>
+      </c>
+      <c r="F3">
         <v>231.2676028517932</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>95.63986514184246</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>13.21596015520101</v>
       </c>
-      <c r="H3" t="n">
-        <v>751.1574351048823</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>765.8985603595449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>236.3272253876183</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.4170546563708104</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>0.4288117386443055</v>
+      </c>
+      <c r="D4">
         <v>183.6588955850214</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>13.80950543306615</v>
+      </c>
+      <c r="F4">
         <v>261.2698864649989</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>86.07587862765823</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>12.01450923200092</v>
       </c>
-      <c r="H4" t="n">
-        <v>779.7634499536687</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>793.5847124690083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>235.0792928443172</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.3076632710932207</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.3163365285080942</v>
+      </c>
+      <c r="D5">
         <v>169.5312882323274</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>13.80950543306615</v>
+      </c>
+      <c r="F5">
         <v>263.7700767660994</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>65.0351082964529</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>9.61160738560074</v>
       </c>
-      <c r="H5" t="n">
-        <v>743.3350367958908</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>757.1532154863718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>243.0348628078608</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.369195925311865</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>0.3796038342097129</v>
+      </c>
+      <c r="D6">
         <v>200.612024408254</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>17.49204021521713</v>
+      </c>
+      <c r="F6">
         <v>226.2672222495923</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>68.8607029021266</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>7.208705539200553</v>
       </c>
-      <c r="H6" t="n">
-        <v>746.3527138323461</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>763.8551619564611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>248.0265929810645</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.3213371942529196</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>0.3303959297751206</v>
+      </c>
+      <c r="D7">
         <v>209.0885888198705</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>16.5714065196794</v>
+      </c>
+      <c r="F7">
         <v>198.7651289374871</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>55.47112178226863</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>15.6188620016012</v>
       </c>
-      <c r="H7" t="n">
-        <v>727.2916317165449</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>743.8720969717464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>271.7373113037827</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.3555220021521662</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>0.3655444329426866</v>
+      </c>
+      <c r="D8">
         <v>197.7865029377153</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>31.30154564828328</v>
+      </c>
+      <c r="F8">
         <v>216.2664610451905</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>36.34314875390013</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>13.21596015520101</v>
       </c>
-      <c r="H8" t="n">
-        <v>735.7049061979418</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>767.0164742770156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>299.8157935280541</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.3008263095133715</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.309306827874581</v>
+      </c>
+      <c r="D9">
         <v>189.3099385260989</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>57.07928912334012</v>
+      </c>
+      <c r="F9">
         <v>202.5154143891379</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>36.34314875390013</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>8.410156462400646</v>
       </c>
-      <c r="H9" t="n">
-        <v>736.6952779691051</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>793.7830476108064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>288.1164259346079</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.3418480789924676</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0.3514850316756602</v>
+      </c>
+      <c r="D10">
         <v>234.5182820547195</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>69.04752716533079</v>
+      </c>
+      <c r="F10">
         <v>108.7582780978703</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>26.77916223971588</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>3.604352769600276</v>
       </c>
-      <c r="H10" t="n">
-        <v>662.1183491755064</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>731.1755132935205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>208.4047347312593</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.2803154247738234</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>0.2882177259740414</v>
+      </c>
+      <c r="D11">
         <v>166.7057667617885</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>55.23802173226461</v>
+      </c>
+      <c r="F11">
         <v>56.25428177476053</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>22.95356763404218</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>3.604352769600276</v>
       </c>
-      <c r="H11" t="n">
-        <v>458.2030190962247</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>513.4489431296895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>174.2425813583957</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.3076632710932207</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.3163365285080942</v>
+      </c>
+      <c r="D12">
         <v>146.9271164680171</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>43.26978369027395</v>
+      </c>
+      <c r="F12">
         <v>50.00380602200936</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>28.69195954255274</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>4.80580369280037</v>
       </c>
-      <c r="H12" t="n">
-        <v>404.9789303548685</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>448.2573873025573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>143.8242256154349</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.2051088473954806</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.2108910190053961</v>
+      </c>
+      <c r="D13">
         <v>118.6719017626292</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>32.22217934382103</v>
+      </c>
+      <c r="F13">
         <v>25.00190301100468</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>13.38958111985794</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>2.402901846400185</v>
       </c>
-      <c r="H13" t="n">
-        <v>303.4956222027225</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>335.7235837181534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>110.1300469463093</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.1845979626559325</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>0.1898019171048565</v>
+      </c>
+      <c r="D14">
         <v>62.16147235185337</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>14.73013912860389</v>
+      </c>
+      <c r="F14">
         <v>31.25237876375584</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>9.563986514184249</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>3.604352769600276</v>
       </c>
-      <c r="H14" t="n">
-        <v>216.8968353083589</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>231.6321783914118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>64.73650068373699</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.08204353895819222</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0.08435640760215846</v>
+      </c>
+      <c r="D15">
         <v>33.90625764646546</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>9.206336955377436</v>
+      </c>
+      <c r="F15">
         <v>25.00190301100468</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>13.38958111985794</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>1.201450923200093</v>
       </c>
-      <c r="H15" t="n">
-        <v>138.3177369232234</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>147.5263867472448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>52.10118368281482</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.1572501163365351</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>0.1616831145708037</v>
+      </c>
+      <c r="D16">
         <v>39.55730058754305</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>2.761901086613232</v>
+      </c>
+      <c r="F16">
         <v>13.75104665605257</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>15.30237842269479</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>1.201450923200093</v>
       </c>
-      <c r="H16" t="n">
-        <v>122.0706103886419</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>124.8369444734894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>33.0702123974753</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.2119458089753299</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>0.2179207196389093</v>
+      </c>
+      <c r="D17">
         <v>19.77865029377153</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.9206336955377434</v>
+      </c>
+      <c r="F17">
         <v>28.75218846265538</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>15.30237842269479</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>97.11537538557232</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>98.04198399177366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>22.6187773473298</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.1845979626559325</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>0.1898019171048565</v>
+      </c>
+      <c r="D18">
         <v>19.77865029377153</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.9206336955377434</v>
+      </c>
+      <c r="F18">
         <v>15.0011418066028</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>21.04077033120534</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>78.62393774156541</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>79.54977539155207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>23.39873518689288</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.1572501163365351</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0.1616831145708037</v>
+      </c>
+      <c r="D19">
         <v>28.25521470538789</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>4.603168477688718</v>
+      </c>
+      <c r="F19">
         <v>26.2519981615549</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>17.21517572553165</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>95.27837389570387</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>99.88597537162684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>40.08983295354319</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.09571746211789094</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0.09841580886918487</v>
+      </c>
+      <c r="D20">
         <v>42.38282205808184</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>2.761901086613232</v>
+      </c>
+      <c r="F20">
         <v>52.50399632310981</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>21.04077033120534</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>156.1131391280581</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>158.8777385614226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>92.97097447592108</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.08204353895819222</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.08435640760215846</v>
+      </c>
+      <c r="D21">
         <v>98.89325146885764</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>34.98408043043427</v>
+      </c>
+      <c r="F21">
         <v>90.00685083961683</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>55.47112178226863</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>1.201450923200093</v>
       </c>
-      <c r="H21" t="n">
-        <v>338.6256930288225</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>373.6120863279006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>165.5070535552891</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.2734784631939741</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>0.2811880253405282</v>
+      </c>
+      <c r="D22">
         <v>178.0078526439438</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>90.22210216269892</v>
+      </c>
+      <c r="F22">
         <v>150.0114180660281</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>86.07587862765823</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>6.00725461600046</v>
       </c>
-      <c r="H22" t="n">
-        <v>585.8829359721135</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>676.112747696959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>229.1516132636378</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.1367392315969871</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>0.1405940126702641</v>
+      </c>
+      <c r="D23">
         <v>118.6719017626292</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>75.49196303409501</v>
+      </c>
+      <c r="F23">
         <v>177.5135113781332</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>78.42468941631085</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>12.01450923200092</v>
       </c>
-      <c r="H23" t="n">
-        <v>615.9129642843089</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>691.4087820994772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>268.1495052417924</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.1640870779163844</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>0.1687128152043169</v>
+      </c>
+      <c r="D24">
         <v>146.9271164680171</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>33.14281303935879</v>
+      </c>
+      <c r="F24">
         <v>188.7643677330852</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>109.0294462617003</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>9.61160738560074</v>
       </c>
-      <c r="H24" t="n">
-        <v>722.6461301681122</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>755.793568944759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>216.5162962627156</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.3350111174126182</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>0.344455331042147</v>
+      </c>
+      <c r="D25">
         <v>192.1354599966378</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>24.85710977951908</v>
+      </c>
+      <c r="F25">
         <v>241.2683640561951</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>128.1574192900689</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>4.80580369280037</v>
       </c>
-      <c r="H25" t="n">
-        <v>783.2183544158304</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>808.084908408979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>221.664018003832</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.369195925311865</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0.3796038342097129</v>
+      </c>
+      <c r="D26">
         <v>183.6588955850214</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>14.73013912860389</v>
+      </c>
+      <c r="F26">
         <v>315.0239779386589</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>131.9830138957426</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>12.01450923200092</v>
       </c>
-      <c r="H26" t="n">
-        <v>864.7136105805678</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>879.4541576180695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>217.7642288060166</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.4444025026902079</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>0.4569305411783583</v>
+      </c>
+      <c r="D27">
         <v>163.8802452912498</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>11.96823804199067</v>
+      </c>
+      <c r="F27">
         <v>261.2698864649989</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>122.4190273815584</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>10.81305830880082</v>
       </c>
-      <c r="H27" t="n">
-        <v>776.5908487553146</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>788.5716148357934</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>222.2879842754824</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.3418480789924676</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0.3514850316756602</v>
+      </c>
+      <c r="D28">
         <v>144.1015949974782</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>17.49204021521713</v>
+      </c>
+      <c r="F28">
         <v>221.2668416473913</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>89.90147323333186</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>15.6188620016012</v>
       </c>
-      <c r="H28" t="n">
-        <v>693.5186042342775</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>711.0202814021778</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>235.2352844122299</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.3076632710932207</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>0.3163365285080942</v>
+      </c>
+      <c r="D29">
         <v>209.0885888198705</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>23.01584238844359</v>
+      </c>
+      <c r="F29">
         <v>252.5192204111472</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>87.98867593049501</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>15.6188620016012</v>
       </c>
-      <c r="H29" t="n">
-        <v>800.758294846437</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>823.7828104922954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>206.5328359163078</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.293989347933522</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>0.3022771272410677</v>
+      </c>
+      <c r="D30">
         <v>211.9141102904093</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>14.73013912860389</v>
+      </c>
+      <c r="F30">
         <v>230.017507701243</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>51.6455271765949</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>9.61160738560074</v>
       </c>
-      <c r="H30" t="n">
-        <v>710.0155778180892</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>724.7540047260009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>242.8788712399482</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.2256197321350286</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>0.2319801209059357</v>
+      </c>
+      <c r="D31">
         <v>152.5781594090946</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>13.80950543306615</v>
+      </c>
+      <c r="F31">
         <v>225.0171270990421</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>80.33748671914761</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>18.02176384800138</v>
       </c>
-      <c r="H31" t="n">
-        <v>719.0590280473689</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>732.8748938692059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>277.5089993165498</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.3008263095133715</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>0.309306827874581</v>
+      </c>
+      <c r="D32">
         <v>183.6588955850214</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>30.38091195274555</v>
+      </c>
+      <c r="F32">
         <v>217.5165561957407</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>65.0351082964529</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>10.81305830880082</v>
       </c>
-      <c r="H32" t="n">
-        <v>754.833444012079</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>785.2228364831858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>304.3395489975202</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.2256197321350286</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>0.2319801209059357</v>
+      </c>
+      <c r="D33">
         <v>138.4505520564007</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>51.55548695011364</v>
+      </c>
+      <c r="F33">
         <v>177.5135113781332</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>32.51755414822645</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>8.410156462400646</v>
       </c>
-      <c r="H33" t="n">
-        <v>661.4569427748163</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>713.0187901137008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>317.5988322700929</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.1572501163365351</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>0.1616831145708037</v>
+      </c>
+      <c r="D34">
         <v>158.2292023501722</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>66.28562607871758</v>
+      </c>
+      <c r="F34">
         <v>120.0091344528224</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>17.21517572553165</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>6.00725461600046</v>
       </c>
-      <c r="H34" t="n">
-        <v>619.2168495309561</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>685.5069086079079</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>222.7559589792203</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.1435761931768364</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>0.1476237133037773</v>
+      </c>
+      <c r="D35">
         <v>129.9739876447843</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>49.71421955903816</v>
+      </c>
+      <c r="F35">
         <v>70.00532843081308</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>28.69195954255274</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>6.00725461600046</v>
       </c>
-      <c r="H35" t="n">
-        <v>457.5780654065478</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>507.2963324857128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>197.1733418415508</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.09571746211789094</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>0.09841580886918487</v>
+      </c>
+      <c r="D36">
         <v>87.59116558670252</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>53.39675434118913</v>
+      </c>
+      <c r="F36">
         <v>55.00418662421028</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>26.77916223971588</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>8.410156462400646</v>
       </c>
-      <c r="H36" t="n">
-        <v>375.0537302166981</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>428.4531829046385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>157.707475159658</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.09571746211789094</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>0.09841580886918487</v>
+      </c>
+      <c r="D37">
         <v>96.0677299983189</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>29.46027825720779</v>
+      </c>
+      <c r="F37">
         <v>48.75371087145909</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>17.21517572553165</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>4.80580369280037</v>
       </c>
-      <c r="H37" t="n">
-        <v>324.645612909886</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>354.108589513845</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>121.3614398360178</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.1640870779163844</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>0.1687128152043169</v>
+      </c>
+      <c r="D38">
         <v>56.51042941077578</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>14.73013912860389</v>
+      </c>
+      <c r="F38">
         <v>36.25275936595679</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>17.21517572553165</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>2.402901846400185</v>
       </c>
-      <c r="H38" t="n">
-        <v>233.9067932625986</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>248.6415581284904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>75.81190200553297</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.1299022700171377</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>0.1335643120367509</v>
+      </c>
+      <c r="D39">
         <v>39.55730058754305</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>6.444435868764205</v>
+      </c>
+      <c r="F39">
         <v>18.75142725825351</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>11.47678381702109</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>1.201450923200093</v>
       </c>
-      <c r="H39" t="n">
-        <v>146.9287668615679</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>153.3768647723517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>57.56088855975652</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.2803154247738234</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0.2882177259740414</v>
+      </c>
+      <c r="D40">
         <v>31.08073617592668</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>3.682534782150974</v>
+      </c>
+      <c r="F40">
         <v>17.50133210770327</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>21.04077033120534</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>2.402901846400185</v>
       </c>
-      <c r="H40" t="n">
-        <v>129.8669444457659</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>133.557381529117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>41.18177392893149</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.2119458089753299</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>0.2179207196389093</v>
+      </c>
+      <c r="D41">
         <v>19.77865029377153</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.9206336955377434</v>
+      </c>
+      <c r="F41">
         <v>31.25237876375584</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>21.04077033120534</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>1.201450923200093</v>
       </c>
-      <c r="H41" t="n">
-        <v>114.6669700498396</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>115.593578656041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>30.41835574296075</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.1230653084372883</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>0.1265346114032377</v>
+      </c>
+      <c r="D42">
         <v>31.08073617592668</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>1.841267391075487</v>
+      </c>
+      <c r="F42">
         <v>16.25123695715303</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>19.1279730283685</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>97.00136721284625</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>98.84610390688769</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>23.86670989063078</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.1093913852775896</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>0.1124752101362112</v>
+      </c>
+      <c r="D43">
         <v>31.08073617592668</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>1.841267391075487</v>
+      </c>
+      <c r="F43">
         <v>20.00152240880374</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>26.77916223971588</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>1.201450923200093</v>
       </c>
-      <c r="H43" t="n">
-        <v>103.0389730235548</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>104.8833242394889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>39.30987511398006</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.08888050053804154</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>0.09138610823567164</v>
+      </c>
+      <c r="D44">
         <v>33.90625764646546</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>2.761901086613232</v>
+      </c>
+      <c r="F44">
         <v>55.00418662421028</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>26.77916223971588</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>155.0883621249097</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>157.8527688192206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>93.43894917965895</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.07520657737834287</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0.07732670696864524</v>
+      </c>
+      <c r="D45">
         <v>53.684907940237</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>29.46027825720779</v>
+      </c>
+      <c r="F45">
         <v>120.0091344528224</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>57.38391908510548</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>2.402901846400185</v>
       </c>
-      <c r="H45" t="n">
-        <v>326.9950190816024</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>356.4574174684005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>170.8107668643181</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.07520657737834287</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.07732670696864524</v>
+      </c>
+      <c r="D46">
         <v>115.8463802920904</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>90.22210216269892</v>
+      </c>
+      <c r="F46">
         <v>152.5116083671285</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>112.8550408673741</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>4.80580369280037</v>
       </c>
-      <c r="H46" t="n">
-        <v>556.9048066610899</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>647.1290289533791</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>233.2073940293658</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.116228346857439</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>0.1195049107697245</v>
+      </c>
+      <c r="D47">
         <v>146.9271164680171</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>71.80942825194401</v>
+      </c>
+      <c r="F47">
         <v>158.7620841198797</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>91.81427053616872</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>8.410156462400646</v>
       </c>
-      <c r="H47" t="n">
-        <v>639.2372499626894</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>711.0499547785457</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>257.3860870558218</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.1709240394962338</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>0.1757425158378301</v>
+      </c>
+      <c r="D48">
         <v>169.5312882323274</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>36.82534782150974</v>
+      </c>
+      <c r="F48">
         <v>196.2649386363867</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>95.63986514184246</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>10.81305830880082</v>
       </c>
-      <c r="H48" t="n">
-        <v>729.8061614146754</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>766.6363277125267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>216.5162962627156</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.3350111174126182</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>0.344455331042147</v>
+      </c>
+      <c r="D49">
         <v>192.1354599966378</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>24.85710977951908</v>
+      </c>
+      <c r="F49">
         <v>241.2683640561951</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>128.1574192900689</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>4.80580369280037</v>
       </c>
-      <c r="H49" t="n">
-        <v>783.2183544158304</v>
+      <c r="I49">
+        <v>808.084908408979</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_NOx.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>215.5803468552398</v>
+        <v>312.4977723545086</v>
       </c>
       <c r="C2">
-        <v>0.4569305411783583</v>
+        <v>0.6623506192559333</v>
       </c>
       <c r="D2">
-        <v>203.4375458787929</v>
+        <v>294.8959904173458</v>
       </c>
       <c r="E2">
-        <v>14.73013912860389</v>
+        <v>21.35229732815888</v>
       </c>
       <c r="F2">
-        <v>295.0224555298552</v>
+        <v>427.654289885451</v>
       </c>
       <c r="G2">
-        <v>110.9422435645373</v>
+        <v>160.8180174105074</v>
       </c>
       <c r="H2">
-        <v>9.61160738560074</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I2">
-        <v>849.7812688838083</v>
+        <v>1231.813369764616</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>224.1598830904339</v>
+        <v>324.9343696623942</v>
       </c>
       <c r="C3">
-        <v>0.4006929361102527</v>
+        <v>0.5808305430398184</v>
       </c>
       <c r="D3">
-        <v>186.4844170555602</v>
+        <v>270.3213245492337</v>
       </c>
       <c r="E3">
-        <v>14.73013912860389</v>
+        <v>21.35229732815888</v>
       </c>
       <c r="F3">
-        <v>231.2676028517932</v>
+        <v>335.2374730034256</v>
       </c>
       <c r="G3">
-        <v>95.63986514184246</v>
+        <v>138.6362219056098</v>
       </c>
       <c r="H3">
-        <v>13.21596015520101</v>
+        <v>19.15739615540878</v>
       </c>
       <c r="I3">
-        <v>765.8985603595449</v>
+        <v>1110.219913147271</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>236.3272253876183</v>
+        <v>342.5717258444867</v>
       </c>
       <c r="C4">
-        <v>0.4288117386443055</v>
+        <v>0.6215905811478759</v>
       </c>
       <c r="D4">
-        <v>183.6588955850214</v>
+        <v>266.2255469045483</v>
       </c>
       <c r="E4">
-        <v>13.80950543306615</v>
+        <v>20.01777874514895</v>
       </c>
       <c r="F4">
-        <v>261.2698864649989</v>
+        <v>378.7277397714375</v>
       </c>
       <c r="G4">
-        <v>86.07587862765823</v>
+        <v>124.7725997150489</v>
       </c>
       <c r="H4">
-        <v>12.01450923200092</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I4">
-        <v>793.5847124690083</v>
+        <v>1150.352796248553</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>235.0792928443172</v>
+        <v>340.762766236067</v>
       </c>
       <c r="C5">
-        <v>0.3163365285080942</v>
+        <v>0.4585504287156461</v>
       </c>
       <c r="D5">
-        <v>169.5312882323274</v>
+        <v>245.7466586811215</v>
       </c>
       <c r="E5">
-        <v>13.80950543306615</v>
+        <v>20.01777874514895</v>
       </c>
       <c r="F5">
-        <v>263.7700767660994</v>
+        <v>382.3519286687717</v>
       </c>
       <c r="G5">
-        <v>65.0351082964529</v>
+        <v>94.2726308958148</v>
       </c>
       <c r="H5">
-        <v>9.61160738560074</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I5">
-        <v>757.1532154863718</v>
+        <v>1097.542965405028</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>243.0348628078608</v>
+        <v>352.2948837397427</v>
       </c>
       <c r="C6">
-        <v>0.3796038342097129</v>
+        <v>0.5502605144587754</v>
       </c>
       <c r="D6">
-        <v>200.612024408254</v>
+        <v>290.8002127726607</v>
       </c>
       <c r="E6">
-        <v>17.49204021521713</v>
+        <v>25.35585307718867</v>
       </c>
       <c r="F6">
-        <v>226.2672222495923</v>
+        <v>327.989095208757</v>
       </c>
       <c r="G6">
-        <v>68.8607029021266</v>
+        <v>99.81807977203913</v>
       </c>
       <c r="H6">
-        <v>7.208705539200553</v>
+        <v>10.44948881204115</v>
       </c>
       <c r="I6">
-        <v>763.8551619564611</v>
+        <v>1107.257873896888</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>248.0265929810645</v>
+        <v>359.5307221734215</v>
       </c>
       <c r="C7">
-        <v>0.3303959297751206</v>
+        <v>0.4789304477696747</v>
       </c>
       <c r="D7">
-        <v>209.0885888198705</v>
+        <v>303.0875457067166</v>
       </c>
       <c r="E7">
-        <v>16.5714065196794</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F7">
-        <v>198.7651289374871</v>
+        <v>288.1230173380794</v>
       </c>
       <c r="G7">
-        <v>55.47112178226863</v>
+        <v>80.40900870525371</v>
       </c>
       <c r="H7">
-        <v>15.6188620016012</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I7">
-        <v>743.8720969717464</v>
+        <v>1078.291117958175</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>271.7373113037827</v>
+        <v>393.9009547333966</v>
       </c>
       <c r="C8">
-        <v>0.3655444329426866</v>
+        <v>0.5298804954047467</v>
       </c>
       <c r="D8">
-        <v>197.7865029377153</v>
+        <v>286.7044351279751</v>
       </c>
       <c r="E8">
-        <v>31.30154564828328</v>
+        <v>45.3736318223376</v>
       </c>
       <c r="F8">
-        <v>216.2664610451905</v>
+        <v>313.4923396194196</v>
       </c>
       <c r="G8">
-        <v>36.34314875390013</v>
+        <v>52.68176432413175</v>
       </c>
       <c r="H8">
-        <v>13.21596015520101</v>
+        <v>19.15739615540878</v>
       </c>
       <c r="I8">
-        <v>767.0164742770156</v>
+        <v>1111.840402278074</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>299.8157935280541</v>
+        <v>434.6025459228405</v>
       </c>
       <c r="C9">
-        <v>0.309306827874581</v>
+        <v>0.4483604191886317</v>
       </c>
       <c r="D9">
-        <v>189.3099385260989</v>
+        <v>274.417102193919</v>
       </c>
       <c r="E9">
-        <v>57.07928912334012</v>
+        <v>82.74015214661563</v>
       </c>
       <c r="F9">
-        <v>202.5154143891379</v>
+        <v>293.5593006840807</v>
       </c>
       <c r="G9">
-        <v>36.34314875390013</v>
+        <v>52.68176432413175</v>
       </c>
       <c r="H9">
-        <v>8.410156462400646</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I9">
-        <v>793.7830476108064</v>
+        <v>1150.640295971491</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>288.1164259346079</v>
+        <v>417.6435495939058</v>
       </c>
       <c r="C10">
-        <v>0.3514850316756602</v>
+        <v>0.5095004763507178</v>
       </c>
       <c r="D10">
-        <v>234.5182820547195</v>
+        <v>339.9495445088846</v>
       </c>
       <c r="E10">
-        <v>69.04752716533079</v>
+        <v>100.0888937257447</v>
       </c>
       <c r="F10">
-        <v>108.7582780978703</v>
+        <v>157.6522170340434</v>
       </c>
       <c r="G10">
-        <v>26.77916223971588</v>
+        <v>38.81814213357077</v>
       </c>
       <c r="H10">
-        <v>3.604352769600276</v>
+        <v>5.224744406020576</v>
       </c>
       <c r="I10">
-        <v>731.1755132935205</v>
+        <v>1059.886591878521</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>208.4047347312593</v>
+        <v>302.0962546060952</v>
       </c>
       <c r="C11">
-        <v>0.2882177259740414</v>
+        <v>0.4177903906075888</v>
       </c>
       <c r="D11">
-        <v>166.7057667617885</v>
+        <v>241.6508810364363</v>
       </c>
       <c r="E11">
-        <v>55.23802173226461</v>
+        <v>80.07111498059578</v>
       </c>
       <c r="F11">
-        <v>56.25428177476053</v>
+        <v>81.54425019002242</v>
       </c>
       <c r="G11">
-        <v>22.95356763404218</v>
+        <v>33.27269325734637</v>
       </c>
       <c r="H11">
-        <v>3.604352769600276</v>
+        <v>5.224744406020576</v>
       </c>
       <c r="I11">
-        <v>513.4489431296895</v>
+        <v>744.2777288671242</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>174.2425813583957</v>
+        <v>252.5759853256049</v>
       </c>
       <c r="C12">
-        <v>0.3163365285080942</v>
+        <v>0.4585504287156461</v>
       </c>
       <c r="D12">
-        <v>146.9271164680171</v>
+        <v>212.9804375236386</v>
       </c>
       <c r="E12">
-        <v>43.26978369027395</v>
+        <v>62.72237340146667</v>
       </c>
       <c r="F12">
-        <v>50.00380602200936</v>
+        <v>72.48377794668656</v>
       </c>
       <c r="G12">
-        <v>28.69195954255274</v>
+        <v>41.59086657168297</v>
       </c>
       <c r="H12">
-        <v>4.80580369280037</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I12">
-        <v>448.2573873025573</v>
+        <v>649.7783170724897</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>143.8242256154349</v>
+        <v>208.4825948703741</v>
       </c>
       <c r="C13">
-        <v>0.2108910190053961</v>
+        <v>0.3057002858104307</v>
       </c>
       <c r="D13">
-        <v>118.6719017626292</v>
+        <v>172.0226610767851</v>
       </c>
       <c r="E13">
-        <v>32.22217934382103</v>
+        <v>46.70815040534751</v>
       </c>
       <c r="F13">
-        <v>25.00190301100468</v>
+        <v>36.24188897334328</v>
       </c>
       <c r="G13">
-        <v>13.38958111985794</v>
+        <v>19.40907106678539</v>
       </c>
       <c r="H13">
-        <v>2.402901846400185</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I13">
-        <v>335.7235837181534</v>
+        <v>486.6532296157929</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>110.1300469463093</v>
+        <v>159.6406854430413</v>
       </c>
       <c r="C14">
-        <v>0.1898019171048565</v>
+        <v>0.2751302572293877</v>
       </c>
       <c r="D14">
-        <v>62.16147235185337</v>
+        <v>90.10710818307793</v>
       </c>
       <c r="E14">
-        <v>14.73013912860389</v>
+        <v>21.35229732815888</v>
       </c>
       <c r="F14">
-        <v>31.25237876375584</v>
+        <v>45.30236121667914</v>
       </c>
       <c r="G14">
-        <v>9.563986514184249</v>
+        <v>13.86362219056099</v>
       </c>
       <c r="H14">
-        <v>3.604352769600276</v>
+        <v>5.224744406020576</v>
       </c>
       <c r="I14">
-        <v>231.6321783914118</v>
+        <v>335.7659490247682</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>64.73650068373699</v>
+        <v>93.83977968677354</v>
       </c>
       <c r="C15">
-        <v>0.08435640760215846</v>
+        <v>0.1222801143241723</v>
       </c>
       <c r="D15">
-        <v>33.90625764646546</v>
+        <v>49.1493317362243</v>
       </c>
       <c r="E15">
-        <v>9.206336955377436</v>
+        <v>13.34518583009929</v>
       </c>
       <c r="F15">
-        <v>25.00190301100468</v>
+        <v>36.24188897334328</v>
       </c>
       <c r="G15">
-        <v>13.38958111985794</v>
+        <v>19.40907106678539</v>
       </c>
       <c r="H15">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I15">
-        <v>147.5263867472448</v>
+        <v>213.8491188762235</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>52.10118368281482</v>
+        <v>75.52406365152379</v>
       </c>
       <c r="C16">
-        <v>0.1616831145708037</v>
+        <v>0.2343702191213303</v>
       </c>
       <c r="D16">
-        <v>39.55730058754305</v>
+        <v>57.34088702559502</v>
       </c>
       <c r="E16">
-        <v>2.761901086613232</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F16">
-        <v>13.75104665605257</v>
+        <v>19.93303893533882</v>
       </c>
       <c r="G16">
-        <v>15.30237842269479</v>
+        <v>22.18179550489758</v>
       </c>
       <c r="H16">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I16">
-        <v>124.8369444734894</v>
+        <v>180.9592925541799</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>33.0702123974753</v>
+        <v>47.93742962312292</v>
       </c>
       <c r="C17">
-        <v>0.2179207196389093</v>
+        <v>0.3158902953374452</v>
       </c>
       <c r="D17">
-        <v>19.77865029377153</v>
+        <v>28.67044351279751</v>
       </c>
       <c r="E17">
-        <v>0.9206336955377434</v>
+        <v>1.33451858300993</v>
       </c>
       <c r="F17">
-        <v>28.75218846265538</v>
+        <v>41.6781723193448</v>
       </c>
       <c r="G17">
-        <v>15.30237842269479</v>
+        <v>22.18179550489758</v>
       </c>
       <c r="I17">
-        <v>98.04198399177366</v>
+        <v>142.1182498385102</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>22.6187773473298</v>
+        <v>32.78739290260764</v>
       </c>
       <c r="C18">
-        <v>0.1898019171048565</v>
+        <v>0.2751302572293877</v>
       </c>
       <c r="D18">
-        <v>19.77865029377153</v>
+        <v>28.67044351279751</v>
       </c>
       <c r="E18">
-        <v>0.9206336955377434</v>
+        <v>1.33451858300993</v>
       </c>
       <c r="F18">
-        <v>15.0011418066028</v>
+        <v>21.74513338400598</v>
       </c>
       <c r="G18">
-        <v>21.04077033120534</v>
+        <v>30.49996881923418</v>
       </c>
       <c r="I18">
-        <v>79.54977539155207</v>
+        <v>115.3125874588846</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>23.39873518689288</v>
+        <v>33.91799265786997</v>
       </c>
       <c r="C19">
-        <v>0.1616831145708037</v>
+        <v>0.2343702191213303</v>
       </c>
       <c r="D19">
-        <v>28.25521470538789</v>
+        <v>40.95777644685359</v>
       </c>
       <c r="E19">
-        <v>4.603168477688718</v>
+        <v>6.672592915049647</v>
       </c>
       <c r="F19">
-        <v>26.2519981615549</v>
+        <v>38.05398342201047</v>
       </c>
       <c r="G19">
-        <v>17.21517572553165</v>
+        <v>24.95451994300978</v>
       </c>
       <c r="I19">
-        <v>99.88597537162684</v>
+        <v>144.7912356039148</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>40.08983295354319</v>
+        <v>58.11282742048386</v>
       </c>
       <c r="C20">
-        <v>0.09841580886918487</v>
+        <v>0.142660133378201</v>
       </c>
       <c r="D20">
-        <v>42.38282205808184</v>
+        <v>61.43666467028039</v>
       </c>
       <c r="E20">
-        <v>2.761901086613232</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F20">
-        <v>52.50399632310981</v>
+        <v>76.10796684402094</v>
       </c>
       <c r="G20">
-        <v>21.04077033120534</v>
+        <v>30.49996881923418</v>
       </c>
       <c r="I20">
-        <v>158.8777385614226</v>
+        <v>230.3036436364274</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>92.97097447592108</v>
+        <v>134.7674908272699</v>
       </c>
       <c r="C21">
-        <v>0.08435640760215846</v>
+        <v>0.1222801143241723</v>
       </c>
       <c r="D21">
-        <v>98.89325146885764</v>
+        <v>143.3522175639876</v>
       </c>
       <c r="E21">
-        <v>34.98408043043427</v>
+        <v>50.71170615437733</v>
       </c>
       <c r="F21">
-        <v>90.00685083961683</v>
+        <v>130.4708003040358</v>
       </c>
       <c r="G21">
-        <v>55.47112178226863</v>
+        <v>80.40900870525371</v>
       </c>
       <c r="H21">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I21">
-        <v>373.6120863279006</v>
+        <v>541.5750851379221</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>165.5070535552891</v>
+        <v>239.9132680666669</v>
       </c>
       <c r="C22">
-        <v>0.2811880253405282</v>
+        <v>0.4076003810805743</v>
       </c>
       <c r="D22">
-        <v>178.0078526439438</v>
+        <v>258.0339916151775</v>
       </c>
       <c r="E22">
-        <v>90.22210216269892</v>
+        <v>130.7828211349731</v>
       </c>
       <c r="F22">
-        <v>150.0114180660281</v>
+        <v>217.4513338400599</v>
       </c>
       <c r="G22">
-        <v>86.07587862765823</v>
+        <v>124.7725997150489</v>
       </c>
       <c r="H22">
-        <v>6.00725461600046</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I22">
-        <v>676.112747696959</v>
+        <v>980.0695220963746</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>229.1516132636378</v>
+        <v>332.1702080960733</v>
       </c>
       <c r="C23">
-        <v>0.1405940126702641</v>
+        <v>0.2038001905402872</v>
       </c>
       <c r="D23">
-        <v>118.6719017626292</v>
+        <v>172.0226610767851</v>
       </c>
       <c r="E23">
-        <v>75.49196303409501</v>
+        <v>109.4305238068142</v>
       </c>
       <c r="F23">
-        <v>177.5135113781332</v>
+        <v>257.3174117107375</v>
       </c>
       <c r="G23">
-        <v>78.42468941631085</v>
+        <v>113.6817019626001</v>
       </c>
       <c r="H23">
-        <v>12.01450923200092</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I23">
-        <v>691.4087820994772</v>
+        <v>1002.242121530286</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>268.1495052417924</v>
+        <v>388.7001958591899</v>
       </c>
       <c r="C24">
-        <v>0.1687128152043169</v>
+        <v>0.2445602286483446</v>
       </c>
       <c r="D24">
-        <v>146.9271164680171</v>
+        <v>212.9804375236386</v>
       </c>
       <c r="E24">
-        <v>33.14281303935879</v>
+        <v>48.04266898835746</v>
       </c>
       <c r="F24">
-        <v>188.7643677330852</v>
+        <v>273.6262617487419</v>
       </c>
       <c r="G24">
-        <v>109.0294462617003</v>
+        <v>158.0452929723953</v>
       </c>
       <c r="H24">
-        <v>9.61160738560074</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I24">
-        <v>755.793568944759</v>
+        <v>1095.57206907036</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>216.5162962627156</v>
+        <v>313.8544920608234</v>
       </c>
       <c r="C25">
-        <v>0.344455331042147</v>
+        <v>0.4993104668237037</v>
       </c>
       <c r="D25">
-        <v>192.1354599966378</v>
+        <v>278.5128798386045</v>
       </c>
       <c r="E25">
-        <v>24.85710977951908</v>
+        <v>36.0320017412681</v>
       </c>
       <c r="F25">
-        <v>241.2683640561951</v>
+        <v>349.7342285927629</v>
       </c>
       <c r="G25">
-        <v>128.1574192900689</v>
+        <v>185.7725373535173</v>
       </c>
       <c r="H25">
-        <v>4.80580369280037</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I25">
-        <v>808.084908408979</v>
+        <v>1171.371775928494</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>221.664018003832</v>
+        <v>321.3164504455547</v>
       </c>
       <c r="C26">
-        <v>0.3796038342097129</v>
+        <v>0.5502605144587754</v>
       </c>
       <c r="D26">
-        <v>183.6588955850214</v>
+        <v>266.2255469045483</v>
       </c>
       <c r="E26">
-        <v>14.73013912860389</v>
+        <v>21.35229732815888</v>
       </c>
       <c r="F26">
-        <v>315.0239779386589</v>
+        <v>456.6478010641256</v>
       </c>
       <c r="G26">
-        <v>131.9830138957426</v>
+        <v>191.3179862297416</v>
       </c>
       <c r="H26">
-        <v>12.01450923200092</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I26">
-        <v>879.4541576180695</v>
+        <v>1274.826157173323</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>217.7642288060166</v>
+        <v>315.6634516692431</v>
       </c>
       <c r="C27">
-        <v>0.4569305411783583</v>
+        <v>0.6623506192559333</v>
       </c>
       <c r="D27">
-        <v>163.8802452912498</v>
+        <v>237.5551033917509</v>
       </c>
       <c r="E27">
-        <v>11.96823804199067</v>
+        <v>17.34874157912908</v>
       </c>
       <c r="F27">
-        <v>261.2698864649989</v>
+        <v>378.7277397714375</v>
       </c>
       <c r="G27">
-        <v>122.4190273815584</v>
+        <v>177.4543640391807</v>
       </c>
       <c r="H27">
-        <v>10.81305830880082</v>
+        <v>15.67423321806173</v>
       </c>
       <c r="I27">
-        <v>788.5716148357934</v>
+        <v>1143.085984288059</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>222.2879842754824</v>
+        <v>322.2209302497647</v>
       </c>
       <c r="C28">
-        <v>0.3514850316756602</v>
+        <v>0.5095004763507178</v>
       </c>
       <c r="D28">
-        <v>144.1015949974782</v>
+        <v>208.8846598789534</v>
       </c>
       <c r="E28">
-        <v>17.49204021521713</v>
+        <v>25.35585307718867</v>
       </c>
       <c r="F28">
-        <v>221.2668416473913</v>
+        <v>320.7407174140882</v>
       </c>
       <c r="G28">
-        <v>89.90147323333186</v>
+        <v>130.3180485912733</v>
       </c>
       <c r="H28">
-        <v>15.6188620016012</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I28">
-        <v>711.0202814021778</v>
+        <v>1030.670268780375</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>235.2352844122299</v>
+        <v>340.9888861871192</v>
       </c>
       <c r="C29">
-        <v>0.3163365285080942</v>
+        <v>0.4585504287156461</v>
       </c>
       <c r="D29">
-        <v>209.0885888198705</v>
+        <v>303.0875457067166</v>
       </c>
       <c r="E29">
-        <v>23.01584238844359</v>
+        <v>33.36296457524825</v>
       </c>
       <c r="F29">
-        <v>252.5192204111472</v>
+        <v>366.0430786307674</v>
       </c>
       <c r="G29">
-        <v>87.98867593049501</v>
+        <v>127.5453241531611</v>
       </c>
       <c r="H29">
-        <v>15.6188620016012</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I29">
-        <v>823.7828104922954</v>
+        <v>1194.126908774484</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>206.5328359163078</v>
+        <v>299.3828151934654</v>
       </c>
       <c r="C30">
-        <v>0.3022771272410677</v>
+        <v>0.4381704096616175</v>
       </c>
       <c r="D30">
-        <v>211.9141102904093</v>
+        <v>307.183323351402</v>
       </c>
       <c r="E30">
-        <v>14.73013912860389</v>
+        <v>21.35229732815888</v>
       </c>
       <c r="F30">
-        <v>230.017507701243</v>
+        <v>333.4253785547584</v>
       </c>
       <c r="G30">
-        <v>51.6455271765949</v>
+        <v>74.86355982902937</v>
       </c>
       <c r="H30">
-        <v>9.61160738560074</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I30">
-        <v>724.7540047260009</v>
+        <v>1050.578196415864</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>242.8788712399482</v>
+        <v>352.0687637886902</v>
       </c>
       <c r="C31">
-        <v>0.2319801209059357</v>
+        <v>0.3362703143914738</v>
       </c>
       <c r="D31">
-        <v>152.5781594090946</v>
+        <v>221.1719928130094</v>
       </c>
       <c r="E31">
-        <v>13.80950543306615</v>
+        <v>20.01777874514895</v>
       </c>
       <c r="F31">
-        <v>225.0171270990421</v>
+        <v>326.1770007600897</v>
       </c>
       <c r="G31">
-        <v>80.33748671914761</v>
+        <v>116.4544264007123</v>
       </c>
       <c r="H31">
-        <v>18.02176384800138</v>
+        <v>26.12372203010288</v>
       </c>
       <c r="I31">
-        <v>732.8748938692059</v>
+        <v>1062.349954852145</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>277.5089993165498</v>
+        <v>402.2673929223374</v>
       </c>
       <c r="C32">
-        <v>0.309306827874581</v>
+        <v>0.4483604191886317</v>
       </c>
       <c r="D32">
-        <v>183.6588955850214</v>
+        <v>266.2255469045483</v>
       </c>
       <c r="E32">
-        <v>30.38091195274555</v>
+        <v>44.03911323932768</v>
       </c>
       <c r="F32">
-        <v>217.5165561957407</v>
+        <v>315.3044340680868</v>
       </c>
       <c r="G32">
-        <v>65.0351082964529</v>
+        <v>94.2726308958148</v>
       </c>
       <c r="H32">
-        <v>10.81305830880082</v>
+        <v>15.67423321806173</v>
       </c>
       <c r="I32">
-        <v>785.2228364831858</v>
+        <v>1138.231711667365</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>304.3395489975202</v>
+        <v>441.1600245033621</v>
       </c>
       <c r="C33">
-        <v>0.2319801209059357</v>
+        <v>0.3362703143914738</v>
       </c>
       <c r="D33">
-        <v>138.4505520564007</v>
+        <v>200.6931045895826</v>
       </c>
       <c r="E33">
-        <v>51.55548695011364</v>
+        <v>74.73304064855606</v>
       </c>
       <c r="F33">
-        <v>177.5135113781332</v>
+        <v>257.3174117107375</v>
       </c>
       <c r="G33">
-        <v>32.51755414822645</v>
+        <v>47.1363154479074</v>
       </c>
       <c r="H33">
-        <v>8.410156462400646</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I33">
-        <v>713.0187901137008</v>
+        <v>1033.567237495252</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>317.5988322700929</v>
+        <v>460.3802203428214</v>
       </c>
       <c r="C34">
-        <v>0.1616831145708037</v>
+        <v>0.2343702191213303</v>
       </c>
       <c r="D34">
-        <v>158.2292023501722</v>
+        <v>229.3635481023801</v>
       </c>
       <c r="E34">
-        <v>66.28562607871758</v>
+        <v>96.08533797671492</v>
       </c>
       <c r="F34">
-        <v>120.0091344528224</v>
+        <v>173.9610670720479</v>
       </c>
       <c r="G34">
-        <v>17.21517572553165</v>
+        <v>24.95451994300978</v>
       </c>
       <c r="H34">
-        <v>6.00725461600046</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I34">
-        <v>685.5069086079079</v>
+        <v>993.6869709994631</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>222.7559589792203</v>
+        <v>322.8992901029221</v>
       </c>
       <c r="C35">
-        <v>0.1476237133037773</v>
+        <v>0.2139902000673015</v>
       </c>
       <c r="D35">
-        <v>129.9739876447843</v>
+        <v>188.4057716555266</v>
       </c>
       <c r="E35">
-        <v>49.71421955903816</v>
+        <v>72.06400348253619</v>
       </c>
       <c r="F35">
-        <v>70.00532843081308</v>
+        <v>101.4772891253612</v>
       </c>
       <c r="G35">
-        <v>28.69195954255274</v>
+        <v>41.59086657168297</v>
       </c>
       <c r="H35">
-        <v>6.00725461600046</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I35">
-        <v>507.2963324857128</v>
+        <v>735.3591184814641</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>197.1733418415508</v>
+        <v>285.8156181303174</v>
       </c>
       <c r="C36">
-        <v>0.09841580886918487</v>
+        <v>0.142660133378201</v>
       </c>
       <c r="D36">
-        <v>87.59116558670252</v>
+        <v>126.9691069852462</v>
       </c>
       <c r="E36">
-        <v>53.39675434118913</v>
+        <v>77.4020778145759</v>
       </c>
       <c r="F36">
-        <v>55.00418662421028</v>
+        <v>79.73215574135529</v>
       </c>
       <c r="G36">
-        <v>26.77916223971588</v>
+        <v>38.81814213357077</v>
       </c>
       <c r="H36">
-        <v>8.410156462400646</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I36">
-        <v>428.4531829046385</v>
+        <v>621.0708312191584</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>157.707475159658</v>
+        <v>228.6072705140435</v>
       </c>
       <c r="C37">
-        <v>0.09841580886918487</v>
+        <v>0.142660133378201</v>
       </c>
       <c r="D37">
-        <v>96.0677299983189</v>
+        <v>139.2564399193022</v>
       </c>
       <c r="E37">
-        <v>29.46027825720779</v>
+        <v>42.70459465631775</v>
       </c>
       <c r="F37">
-        <v>48.75371087145909</v>
+        <v>70.67168349801943</v>
       </c>
       <c r="G37">
-        <v>17.21517572553165</v>
+        <v>24.95451994300978</v>
       </c>
       <c r="H37">
-        <v>4.80580369280037</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I37">
-        <v>354.108589513845</v>
+        <v>513.303494538765</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>121.3614398360178</v>
+        <v>175.9213219188189</v>
       </c>
       <c r="C38">
-        <v>0.1687128152043169</v>
+        <v>0.2445602286483446</v>
       </c>
       <c r="D38">
-        <v>56.51042941077578</v>
+        <v>81.91555289370717</v>
       </c>
       <c r="E38">
-        <v>14.73013912860389</v>
+        <v>21.35229732815888</v>
       </c>
       <c r="F38">
-        <v>36.25275936595679</v>
+        <v>52.55073901134779</v>
       </c>
       <c r="G38">
-        <v>17.21517572553165</v>
+        <v>24.95451994300978</v>
       </c>
       <c r="H38">
-        <v>2.402901846400185</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I38">
-        <v>248.6415581284904</v>
+        <v>360.4221542610379</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>75.81190200553297</v>
+        <v>109.8942962114987</v>
       </c>
       <c r="C39">
-        <v>0.1335643120367509</v>
+        <v>0.1936101810132728</v>
       </c>
       <c r="D39">
-        <v>39.55730058754305</v>
+        <v>57.34088702559502</v>
       </c>
       <c r="E39">
-        <v>6.444435868764205</v>
+        <v>9.341630081069507</v>
       </c>
       <c r="F39">
-        <v>18.75142725825351</v>
+        <v>27.18141673000748</v>
       </c>
       <c r="G39">
-        <v>11.47678381702109</v>
+        <v>16.63634662867318</v>
       </c>
       <c r="H39">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I39">
-        <v>153.3768647723517</v>
+        <v>222.3297683265307</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>57.56088855975652</v>
+        <v>83.43826193836013</v>
       </c>
       <c r="C40">
-        <v>0.2882177259740414</v>
+        <v>0.4177903906075888</v>
       </c>
       <c r="D40">
-        <v>31.08073617592668</v>
+        <v>45.05355409153896</v>
       </c>
       <c r="E40">
-        <v>3.682534782150974</v>
+        <v>5.338074332039719</v>
       </c>
       <c r="F40">
-        <v>17.50133210770327</v>
+        <v>25.36932228134031</v>
       </c>
       <c r="G40">
-        <v>21.04077033120534</v>
+        <v>30.49996881923418</v>
       </c>
       <c r="H40">
-        <v>2.402901846400185</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I40">
-        <v>133.557381529117</v>
+        <v>193.600134790468</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>41.18177392893149</v>
+        <v>59.69566707785114</v>
       </c>
       <c r="C41">
-        <v>0.2179207196389093</v>
+        <v>0.3158902953374452</v>
       </c>
       <c r="D41">
-        <v>19.77865029377153</v>
+        <v>28.67044351279751</v>
       </c>
       <c r="E41">
-        <v>0.9206336955377434</v>
+        <v>1.33451858300993</v>
       </c>
       <c r="F41">
-        <v>31.25237876375584</v>
+        <v>45.30236121667914</v>
       </c>
       <c r="G41">
-        <v>21.04077033120534</v>
+        <v>30.49996881923418</v>
       </c>
       <c r="H41">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I41">
-        <v>115.593578656041</v>
+        <v>167.5604309735829</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>30.41835574296075</v>
+        <v>44.09339045523097</v>
       </c>
       <c r="C42">
-        <v>0.1265346114032377</v>
+        <v>0.1834201714862585</v>
       </c>
       <c r="D42">
-        <v>31.08073617592668</v>
+        <v>45.05355409153896</v>
       </c>
       <c r="E42">
-        <v>1.841267391075487</v>
+        <v>2.66903716601986</v>
       </c>
       <c r="F42">
-        <v>16.25123695715303</v>
+        <v>23.55722783267315</v>
       </c>
       <c r="G42">
-        <v>19.1279730283685</v>
+        <v>27.72724438112199</v>
       </c>
       <c r="I42">
-        <v>98.84610390688769</v>
+        <v>143.2838740980712</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>23.86670989063078</v>
+        <v>34.59635251102734</v>
       </c>
       <c r="C43">
-        <v>0.1124752101362112</v>
+        <v>0.1630401524322297</v>
       </c>
       <c r="D43">
-        <v>31.08073617592668</v>
+        <v>45.05355409153896</v>
       </c>
       <c r="E43">
-        <v>1.841267391075487</v>
+        <v>2.66903716601986</v>
       </c>
       <c r="F43">
-        <v>20.00152240880374</v>
+        <v>28.99351117867465</v>
       </c>
       <c r="G43">
-        <v>26.77916223971588</v>
+        <v>38.81814213357077</v>
       </c>
       <c r="H43">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I43">
-        <v>104.8833242394889</v>
+        <v>152.0352187019374</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>39.30987511398006</v>
+        <v>56.98222766522152</v>
       </c>
       <c r="C44">
-        <v>0.09138610823567164</v>
+        <v>0.1324701238511867</v>
       </c>
       <c r="D44">
-        <v>33.90625764646546</v>
+        <v>49.1493317362243</v>
       </c>
       <c r="E44">
-        <v>2.761901086613232</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F44">
-        <v>55.00418662421028</v>
+        <v>79.73215574135529</v>
       </c>
       <c r="G44">
-        <v>26.77916223971588</v>
+        <v>38.81814213357077</v>
       </c>
       <c r="I44">
-        <v>157.8527688192206</v>
+        <v>228.8178831492529</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>93.43894917965895</v>
+        <v>135.4458506804274</v>
       </c>
       <c r="C45">
-        <v>0.07732670696864524</v>
+        <v>0.1120901047971579</v>
       </c>
       <c r="D45">
-        <v>53.684907940237</v>
+        <v>77.81977524902184</v>
       </c>
       <c r="E45">
-        <v>29.46027825720779</v>
+        <v>42.70459465631775</v>
       </c>
       <c r="F45">
-        <v>120.0091344528224</v>
+        <v>173.9610670720479</v>
       </c>
       <c r="G45">
-        <v>57.38391908510548</v>
+        <v>83.18173314336593</v>
       </c>
       <c r="H45">
-        <v>2.402901846400185</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I45">
-        <v>356.4574174684005</v>
+        <v>516.7082738433249</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>170.8107668643181</v>
+        <v>247.6013464024508</v>
       </c>
       <c r="C46">
-        <v>0.07732670696864524</v>
+        <v>0.1120901047971579</v>
       </c>
       <c r="D46">
-        <v>115.8463802920904</v>
+        <v>167.9268834320997</v>
       </c>
       <c r="E46">
-        <v>90.22210216269892</v>
+        <v>130.7828211349731</v>
       </c>
       <c r="F46">
-        <v>152.5116083671285</v>
+        <v>221.0755227373941</v>
       </c>
       <c r="G46">
-        <v>112.8550408673741</v>
+        <v>163.5907418486197</v>
       </c>
       <c r="H46">
-        <v>4.80580369280037</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I46">
-        <v>647.1290289533791</v>
+        <v>938.0557315350288</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>233.2073940293658</v>
+        <v>338.0493268234374</v>
       </c>
       <c r="C47">
-        <v>0.1195049107697245</v>
+        <v>0.1732301619592441</v>
       </c>
       <c r="D47">
-        <v>146.9271164680171</v>
+        <v>212.9804375236386</v>
       </c>
       <c r="E47">
-        <v>71.80942825194401</v>
+        <v>104.0924494747745</v>
       </c>
       <c r="F47">
-        <v>158.7620841198797</v>
+        <v>230.13599498073</v>
       </c>
       <c r="G47">
-        <v>91.81427053616872</v>
+        <v>133.0907730293855</v>
       </c>
       <c r="H47">
-        <v>8.410156462400646</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I47">
-        <v>711.0499547785457</v>
+        <v>1030.71328227464</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>257.3860870558218</v>
+        <v>373.0979192365697</v>
       </c>
       <c r="C48">
-        <v>0.1757425158378301</v>
+        <v>0.2547502381753589</v>
       </c>
       <c r="D48">
-        <v>169.5312882323274</v>
+        <v>245.7466586811215</v>
       </c>
       <c r="E48">
-        <v>36.82534782150974</v>
+        <v>53.38074332039717</v>
       </c>
       <c r="F48">
-        <v>196.2649386363867</v>
+        <v>284.4988284407449</v>
       </c>
       <c r="G48">
-        <v>95.63986514184246</v>
+        <v>138.6362219056098</v>
       </c>
       <c r="H48">
-        <v>10.81305830880082</v>
+        <v>15.67423321806173</v>
       </c>
       <c r="I48">
-        <v>766.6363277125267</v>
+        <v>1111.28935504068</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>216.5162962627156</v>
+        <v>313.8544920608234</v>
       </c>
       <c r="C49">
-        <v>0.344455331042147</v>
+        <v>0.4993104668237037</v>
       </c>
       <c r="D49">
-        <v>192.1354599966378</v>
+        <v>278.5128798386045</v>
       </c>
       <c r="E49">
-        <v>24.85710977951908</v>
+        <v>36.0320017412681</v>
       </c>
       <c r="F49">
-        <v>241.2683640561951</v>
+        <v>349.7342285927629</v>
       </c>
       <c r="G49">
-        <v>128.1574192900689</v>
+        <v>185.7725373535173</v>
       </c>
       <c r="H49">
-        <v>4.80580369280037</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I49">
-        <v>808.084908408979</v>
+        <v>1171.371775928494</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_NOx.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>312.4977723545086</v>
+        <v>212.3935069452059</v>
       </c>
       <c r="C2">
-        <v>0.6623506192559333</v>
+        <v>0.4501759157870261</v>
       </c>
       <c r="D2">
-        <v>294.8959904173458</v>
+        <v>200.4302082440629</v>
       </c>
       <c r="E2">
-        <v>21.35229732815888</v>
+        <v>14.51238924583323</v>
       </c>
       <c r="F2">
-        <v>427.654289885451</v>
+        <v>290.6612540133269</v>
       </c>
       <c r="G2">
-        <v>160.8180174105074</v>
+        <v>109.302227790105</v>
       </c>
       <c r="H2">
-        <v>13.9326517493882</v>
+        <v>9.469522754683162</v>
       </c>
       <c r="I2">
-        <v>1231.813369764616</v>
+        <v>837.219284909004</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>324.9343696623942</v>
+        <v>220.8462152534448</v>
       </c>
       <c r="C3">
-        <v>0.5808305430398184</v>
+        <v>0.3947696492286227</v>
       </c>
       <c r="D3">
-        <v>270.3213245492337</v>
+        <v>183.727690890391</v>
       </c>
       <c r="E3">
-        <v>21.35229732815888</v>
+        <v>14.51238924583323</v>
       </c>
       <c r="F3">
-        <v>335.2374730034256</v>
+        <v>227.8488643748537</v>
       </c>
       <c r="G3">
-        <v>138.6362219056098</v>
+        <v>94.22605843974564</v>
       </c>
       <c r="H3">
-        <v>19.15739615540878</v>
+        <v>13.02059378768935</v>
       </c>
       <c r="I3">
-        <v>1110.219913147271</v>
+        <v>754.5765816411863</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>342.5717258444867</v>
+        <v>232.8336924905838</v>
       </c>
       <c r="C4">
-        <v>0.6215905811478759</v>
+        <v>0.4224727825078245</v>
       </c>
       <c r="D4">
-        <v>266.2255469045483</v>
+        <v>180.9439379981123</v>
       </c>
       <c r="E4">
-        <v>20.01777874514895</v>
+        <v>13.60536491796866</v>
       </c>
       <c r="F4">
-        <v>378.7277397714375</v>
+        <v>257.4076359694292</v>
       </c>
       <c r="G4">
-        <v>124.7725997150489</v>
+        <v>84.80345259577111</v>
       </c>
       <c r="H4">
-        <v>17.41581468673525</v>
+        <v>11.83690344335395</v>
       </c>
       <c r="I4">
-        <v>1150.352796248553</v>
+        <v>781.8534601977268</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>340.762766236067</v>
+        <v>231.6042076457492</v>
       </c>
       <c r="C5">
-        <v>0.4585504287156461</v>
+        <v>0.3116602493910181</v>
       </c>
       <c r="D5">
-        <v>245.7466586811215</v>
+        <v>167.0251735367191</v>
       </c>
       <c r="E5">
-        <v>20.01777874514895</v>
+        <v>13.60536491796866</v>
       </c>
       <c r="F5">
-        <v>382.3519286687717</v>
+        <v>259.870866935644</v>
       </c>
       <c r="G5">
-        <v>94.2726308958148</v>
+        <v>64.07371973902706</v>
       </c>
       <c r="H5">
-        <v>13.9326517493882</v>
+        <v>9.469522754683162</v>
       </c>
       <c r="I5">
-        <v>1097.542965405028</v>
+        <v>745.9605157791822</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>352.2948837397427</v>
+        <v>239.4421735315707</v>
       </c>
       <c r="C6">
-        <v>0.5502605144587754</v>
+        <v>0.3739922992692216</v>
       </c>
       <c r="D6">
-        <v>290.8002127726607</v>
+        <v>197.6464553517843</v>
       </c>
       <c r="E6">
-        <v>25.35585307718867</v>
+        <v>17.23346222942697</v>
       </c>
       <c r="F6">
-        <v>327.989095208757</v>
+        <v>222.9224024424245</v>
       </c>
       <c r="G6">
-        <v>99.81807977203913</v>
+        <v>67.84276207661688</v>
       </c>
       <c r="H6">
-        <v>10.44948881204115</v>
+        <v>7.102142066012373</v>
       </c>
       <c r="I6">
-        <v>1107.257873896888</v>
+        <v>752.5633899971049</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>359.5307221734215</v>
+        <v>244.3601129109097</v>
       </c>
       <c r="C7">
-        <v>0.4789304477696747</v>
+        <v>0.3255118160306189</v>
       </c>
       <c r="D7">
-        <v>303.0875457067166</v>
+        <v>205.9977140286203</v>
       </c>
       <c r="E7">
-        <v>24.02133449417873</v>
+        <v>16.32643790156239</v>
       </c>
       <c r="F7">
-        <v>288.1230173380794</v>
+        <v>195.8268618140635</v>
       </c>
       <c r="G7">
-        <v>80.40900870525371</v>
+        <v>54.65111389505251</v>
       </c>
       <c r="H7">
-        <v>22.64055909275583</v>
+        <v>15.38797447636014</v>
       </c>
       <c r="I7">
-        <v>1078.291117958175</v>
+        <v>732.8757268425991</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>393.9009547333966</v>
+        <v>267.7203249627703</v>
       </c>
       <c r="C8">
-        <v>0.5298804954047467</v>
+        <v>0.360140732629621</v>
       </c>
       <c r="D8">
-        <v>286.7044351279751</v>
+        <v>194.8627024595056</v>
       </c>
       <c r="E8">
-        <v>45.3736318223376</v>
+        <v>30.83882714739562</v>
       </c>
       <c r="F8">
-        <v>313.4923396194196</v>
+        <v>213.0694785775659</v>
       </c>
       <c r="G8">
-        <v>52.68176432413175</v>
+        <v>35.80590220710337</v>
       </c>
       <c r="H8">
-        <v>19.15739615540878</v>
+        <v>13.02059378768935</v>
       </c>
       <c r="I8">
-        <v>1111.840402278074</v>
+        <v>755.6779698746599</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>434.6025459228405</v>
+        <v>295.3837339715528</v>
       </c>
       <c r="C9">
-        <v>0.4483604191886317</v>
+        <v>0.3047344660712176</v>
       </c>
       <c r="D9">
-        <v>274.417102193919</v>
+        <v>186.5114437826697</v>
       </c>
       <c r="E9">
-        <v>82.74015214661563</v>
+        <v>56.23550832760378</v>
       </c>
       <c r="F9">
-        <v>293.5593006840807</v>
+        <v>199.5217082633854</v>
       </c>
       <c r="G9">
-        <v>52.68176432413175</v>
+        <v>35.80590220710337</v>
       </c>
       <c r="H9">
-        <v>12.19107028071468</v>
+        <v>8.285832410347766</v>
       </c>
       <c r="I9">
-        <v>1150.640295971491</v>
+        <v>782.0488634287339</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>417.6435495939058</v>
+        <v>283.8573135512267</v>
       </c>
       <c r="C10">
-        <v>0.5095004763507178</v>
+        <v>0.34628916599002</v>
       </c>
       <c r="D10">
-        <v>339.9495445088846</v>
+        <v>231.0514900591281</v>
       </c>
       <c r="E10">
-        <v>100.0888937257447</v>
+        <v>68.02682458984329</v>
       </c>
       <c r="F10">
-        <v>157.6522170340434</v>
+        <v>107.1505470303367</v>
       </c>
       <c r="G10">
-        <v>38.81814213357077</v>
+        <v>26.38329636312879</v>
       </c>
       <c r="H10">
-        <v>5.224744406020576</v>
+        <v>3.551071033006187</v>
       </c>
       <c r="I10">
-        <v>1059.886591878521</v>
+        <v>720.3668317926597</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>302.0962546060952</v>
+        <v>205.3239690874061</v>
       </c>
       <c r="C11">
-        <v>0.4177903906075888</v>
+        <v>0.2839571161118165</v>
       </c>
       <c r="D11">
-        <v>241.6508810364363</v>
+        <v>164.2414206444404</v>
       </c>
       <c r="E11">
-        <v>80.07111498059578</v>
+        <v>54.42145967187463</v>
       </c>
       <c r="F11">
-        <v>81.54425019002242</v>
+        <v>55.42269673982926</v>
       </c>
       <c r="G11">
-        <v>33.27269325734637</v>
+        <v>22.61425402553897</v>
       </c>
       <c r="H11">
-        <v>5.224744406020576</v>
+        <v>3.551071033006187</v>
       </c>
       <c r="I11">
-        <v>744.2777288671242</v>
+        <v>505.8588283182073</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>252.5759853256049</v>
+        <v>171.6668214600543</v>
       </c>
       <c r="C12">
-        <v>0.4585504287156461</v>
+        <v>0.3116602493910181</v>
       </c>
       <c r="D12">
-        <v>212.9804375236386</v>
+        <v>144.7551503984899</v>
       </c>
       <c r="E12">
-        <v>62.72237340146667</v>
+        <v>42.63014340963512</v>
       </c>
       <c r="F12">
-        <v>72.48377794668656</v>
+        <v>49.26461932429268</v>
       </c>
       <c r="G12">
-        <v>41.59086657168297</v>
+        <v>28.2678175319237</v>
       </c>
       <c r="H12">
-        <v>6.9663258746941</v>
+        <v>4.734761377341581</v>
       </c>
       <c r="I12">
-        <v>649.7783170724897</v>
+        <v>441.6309737511283</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>208.4825948703741</v>
+        <v>141.6981283672069</v>
       </c>
       <c r="C13">
-        <v>0.3057002858104307</v>
+        <v>0.2077734995940121</v>
       </c>
       <c r="D13">
-        <v>172.0226610767851</v>
+        <v>116.9176214757033</v>
       </c>
       <c r="E13">
-        <v>46.70815040534751</v>
+        <v>31.7458514752602</v>
       </c>
       <c r="F13">
-        <v>36.24188897334328</v>
+        <v>24.63230966214634</v>
       </c>
       <c r="G13">
-        <v>19.40907106678539</v>
+        <v>13.19164818156439</v>
       </c>
       <c r="H13">
-        <v>3.48316293734705</v>
+        <v>2.36738068867079</v>
       </c>
       <c r="I13">
-        <v>486.6532296157929</v>
+        <v>330.760713350146</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>159.6406854430413</v>
+        <v>108.5020375566682</v>
       </c>
       <c r="C14">
-        <v>0.2751302572293877</v>
+        <v>0.1869961496346108</v>
       </c>
       <c r="D14">
-        <v>90.10710818307793</v>
+        <v>61.24256363013033</v>
       </c>
       <c r="E14">
-        <v>21.35229732815888</v>
+        <v>14.51238924583323</v>
       </c>
       <c r="F14">
-        <v>45.30236121667914</v>
+        <v>30.79038707768293</v>
       </c>
       <c r="G14">
-        <v>13.86362219056099</v>
+        <v>9.422605843974566</v>
       </c>
       <c r="H14">
-        <v>5.224744406020576</v>
+        <v>3.551071033006187</v>
       </c>
       <c r="I14">
-        <v>335.7659490247682</v>
+        <v>228.20805053693</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>93.83977968677354</v>
+        <v>63.77952632580352</v>
       </c>
       <c r="C15">
-        <v>0.1222801143241723</v>
+        <v>0.08310939983760481</v>
       </c>
       <c r="D15">
-        <v>49.1493317362243</v>
+        <v>33.40503470734382</v>
       </c>
       <c r="E15">
-        <v>13.34518583009929</v>
+        <v>9.070243278645767</v>
       </c>
       <c r="F15">
-        <v>36.24188897334328</v>
+        <v>24.63230966214634</v>
       </c>
       <c r="G15">
-        <v>19.40907106678539</v>
+        <v>13.19164818156439</v>
       </c>
       <c r="H15">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I15">
-        <v>213.8491188762235</v>
+        <v>145.3455618996769</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>75.52406365152379</v>
+        <v>51.33099227185152</v>
       </c>
       <c r="C16">
-        <v>0.2343702191213303</v>
+        <v>0.1592930163554092</v>
       </c>
       <c r="D16">
-        <v>57.34088702559502</v>
+        <v>38.97254049190114</v>
       </c>
       <c r="E16">
-        <v>4.003555749029789</v>
+        <v>2.721072983593731</v>
       </c>
       <c r="F16">
-        <v>19.93303893533882</v>
+        <v>13.54777031418049</v>
       </c>
       <c r="G16">
-        <v>22.18179550489758</v>
+        <v>15.07616935035931</v>
       </c>
       <c r="H16">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I16">
-        <v>180.9592925541799</v>
+        <v>122.991528772577</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>47.93742962312292</v>
+        <v>32.58134838812133</v>
       </c>
       <c r="C17">
-        <v>0.3158902953374452</v>
+        <v>0.2146992829138124</v>
       </c>
       <c r="D17">
-        <v>28.67044351279751</v>
+        <v>19.48627024595057</v>
       </c>
       <c r="E17">
-        <v>1.33451858300993</v>
+        <v>0.9070243278645771</v>
       </c>
       <c r="F17">
-        <v>41.6781723193448</v>
+        <v>28.32715611146831</v>
       </c>
       <c r="G17">
-        <v>22.18179550489758</v>
+        <v>15.07616935035931</v>
       </c>
       <c r="I17">
-        <v>142.1182498385102</v>
+        <v>96.59266770667791</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>32.78739290260764</v>
+        <v>22.28441281263015</v>
       </c>
       <c r="C18">
-        <v>0.2751302572293877</v>
+        <v>0.1869961496346108</v>
       </c>
       <c r="D18">
-        <v>28.67044351279751</v>
+        <v>19.48627024595057</v>
       </c>
       <c r="E18">
-        <v>1.33451858300993</v>
+        <v>0.9070243278645771</v>
       </c>
       <c r="F18">
-        <v>21.74513338400598</v>
+        <v>14.77938579728781</v>
       </c>
       <c r="G18">
-        <v>30.49996881923418</v>
+        <v>20.72973285674405</v>
       </c>
       <c r="I18">
-        <v>115.3125874588846</v>
+        <v>78.37382219011175</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>33.91799265786997</v>
+        <v>23.05284084065188</v>
       </c>
       <c r="C19">
-        <v>0.2343702191213303</v>
+        <v>0.1592930163554092</v>
       </c>
       <c r="D19">
-        <v>40.95777644685359</v>
+        <v>27.83752892278652</v>
       </c>
       <c r="E19">
-        <v>6.672592915049647</v>
+        <v>4.535121639322884</v>
       </c>
       <c r="F19">
-        <v>38.05398342201047</v>
+        <v>25.86392514525367</v>
       </c>
       <c r="G19">
-        <v>24.95451994300978</v>
+        <v>16.96069051915422</v>
       </c>
       <c r="I19">
-        <v>144.7912356039148</v>
+        <v>98.40940008352456</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>58.11282742048386</v>
+        <v>39.49720064031689</v>
       </c>
       <c r="C20">
-        <v>0.142660133378201</v>
+        <v>0.0969609664772056</v>
       </c>
       <c r="D20">
-        <v>61.43666467028039</v>
+        <v>41.75629338417978</v>
       </c>
       <c r="E20">
-        <v>4.003555749029789</v>
+        <v>2.721072983593731</v>
       </c>
       <c r="F20">
-        <v>76.10796684402094</v>
+        <v>51.72785029050733</v>
       </c>
       <c r="G20">
-        <v>30.49996881923418</v>
+        <v>20.72973285674405</v>
       </c>
       <c r="I20">
-        <v>230.3036436364274</v>
+        <v>156.529111121819</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>134.7674908272699</v>
+        <v>91.59662094019009</v>
       </c>
       <c r="C21">
-        <v>0.1222801143241723</v>
+        <v>0.08310939983760481</v>
       </c>
       <c r="D21">
-        <v>143.3522175639876</v>
+        <v>97.43135122975282</v>
       </c>
       <c r="E21">
-        <v>50.71170615437733</v>
+        <v>34.46692445885393</v>
       </c>
       <c r="F21">
-        <v>130.4708003040358</v>
+        <v>88.67631478372687</v>
       </c>
       <c r="G21">
-        <v>80.40900870525371</v>
+        <v>54.65111389505251</v>
       </c>
       <c r="H21">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I21">
-        <v>541.5750851379221</v>
+        <v>368.0891250517492</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>239.9132680666669</v>
+        <v>163.0604275462109</v>
       </c>
       <c r="C22">
-        <v>0.4076003810805743</v>
+        <v>0.2770313327920161</v>
       </c>
       <c r="D22">
-        <v>258.0339916151775</v>
+        <v>175.3764322135551</v>
       </c>
       <c r="E22">
-        <v>130.7828211349731</v>
+        <v>88.88838413072858</v>
       </c>
       <c r="F22">
-        <v>217.4513338400599</v>
+        <v>147.7938579728781</v>
       </c>
       <c r="G22">
-        <v>124.7725997150489</v>
+        <v>84.80345259577111</v>
       </c>
       <c r="H22">
-        <v>8.707907343367626</v>
+        <v>5.918451721676975</v>
       </c>
       <c r="I22">
-        <v>980.0695220963746</v>
+        <v>666.1180375136128</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>332.1702080960733</v>
+        <v>225.7641546327838</v>
       </c>
       <c r="C23">
-        <v>0.2038001905402872</v>
+        <v>0.138515666396008</v>
       </c>
       <c r="D23">
-        <v>172.0226610767851</v>
+        <v>116.9176214757033</v>
       </c>
       <c r="E23">
-        <v>109.4305238068142</v>
+        <v>74.37599488489529</v>
       </c>
       <c r="F23">
-        <v>257.3174117107375</v>
+        <v>174.8893986012391</v>
       </c>
       <c r="G23">
-        <v>113.6817019626001</v>
+        <v>77.26536792059139</v>
       </c>
       <c r="H23">
-        <v>17.41581468673525</v>
+        <v>11.83690344335395</v>
       </c>
       <c r="I23">
-        <v>1002.242121530286</v>
+        <v>681.187956624963</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>388.7001958591899</v>
+        <v>264.1855560338705</v>
       </c>
       <c r="C24">
-        <v>0.2445602286483446</v>
+        <v>0.1662187996752096</v>
       </c>
       <c r="D24">
-        <v>212.9804375236386</v>
+        <v>144.7551503984899</v>
       </c>
       <c r="E24">
-        <v>48.04266898835746</v>
+        <v>32.65287580312477</v>
       </c>
       <c r="F24">
-        <v>273.6262617487419</v>
+        <v>185.973937949205</v>
       </c>
       <c r="G24">
-        <v>158.0452929723953</v>
+        <v>107.41770662131</v>
       </c>
       <c r="H24">
-        <v>13.9326517493882</v>
+        <v>9.469522754683162</v>
       </c>
       <c r="I24">
-        <v>1095.57206907036</v>
+        <v>744.6209683603583</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>313.8544920608234</v>
+        <v>213.3156205788319</v>
       </c>
       <c r="C25">
-        <v>0.4993104668237037</v>
+        <v>0.3393633826702196</v>
       </c>
       <c r="D25">
-        <v>278.5128798386045</v>
+        <v>189.2951966749483</v>
       </c>
       <c r="E25">
-        <v>36.0320017412681</v>
+        <v>24.48965685234358</v>
       </c>
       <c r="F25">
-        <v>349.7342285927629</v>
+        <v>237.7017882397122</v>
       </c>
       <c r="G25">
-        <v>185.7725373535173</v>
+        <v>126.2629183092592</v>
       </c>
       <c r="H25">
-        <v>6.9663258746941</v>
+        <v>4.734761377341581</v>
       </c>
       <c r="I25">
-        <v>1171.371775928494</v>
+        <v>796.1393054151069</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>321.3164504455547</v>
+        <v>218.3872455637754</v>
       </c>
       <c r="C26">
-        <v>0.5502605144587754</v>
+        <v>0.3739922992692216</v>
       </c>
       <c r="D26">
-        <v>266.2255469045483</v>
+        <v>180.9439379981123</v>
       </c>
       <c r="E26">
-        <v>21.35229732815888</v>
+        <v>14.51238924583323</v>
       </c>
       <c r="F26">
-        <v>456.6478010641256</v>
+        <v>310.3671017430439</v>
       </c>
       <c r="G26">
-        <v>191.3179862297416</v>
+        <v>130.031960646849</v>
       </c>
       <c r="H26">
-        <v>17.41581468673525</v>
+        <v>11.83690344335395</v>
       </c>
       <c r="I26">
-        <v>1274.826157173323</v>
+        <v>866.4535309402371</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>315.6634516692431</v>
+        <v>214.5451054236668</v>
       </c>
       <c r="C27">
-        <v>0.6623506192559333</v>
+        <v>0.4501759157870261</v>
       </c>
       <c r="D27">
-        <v>237.5551033917509</v>
+        <v>161.4576677521618</v>
       </c>
       <c r="E27">
-        <v>17.34874157912908</v>
+        <v>11.7913162622395</v>
       </c>
       <c r="F27">
-        <v>378.7277397714375</v>
+        <v>257.4076359694292</v>
       </c>
       <c r="G27">
-        <v>177.4543640391807</v>
+        <v>120.6093548028745</v>
       </c>
       <c r="H27">
-        <v>15.67423321806173</v>
+        <v>10.65321309901856</v>
       </c>
       <c r="I27">
-        <v>1143.085984288059</v>
+        <v>776.9144692251772</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>322.2209302497647</v>
+        <v>219.0019879861929</v>
       </c>
       <c r="C28">
-        <v>0.5095004763507178</v>
+        <v>0.34628916599002</v>
       </c>
       <c r="D28">
-        <v>208.8846598789534</v>
+        <v>141.9713975062113</v>
       </c>
       <c r="E28">
-        <v>25.35585307718867</v>
+        <v>17.23346222942697</v>
       </c>
       <c r="F28">
-        <v>320.7407174140882</v>
+        <v>217.9959405099952</v>
       </c>
       <c r="G28">
-        <v>130.3180485912733</v>
+        <v>88.57249493336084</v>
       </c>
       <c r="H28">
-        <v>22.64055909275583</v>
+        <v>15.38797447636014</v>
       </c>
       <c r="I28">
-        <v>1030.670268780375</v>
+        <v>700.5095468075373</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>340.9888861871192</v>
+        <v>231.7578932513535</v>
       </c>
       <c r="C29">
-        <v>0.4585504287156461</v>
+        <v>0.3116602493910181</v>
       </c>
       <c r="D29">
-        <v>303.0875457067166</v>
+        <v>205.9977140286203</v>
       </c>
       <c r="E29">
-        <v>33.36296457524825</v>
+        <v>22.67560819661443</v>
       </c>
       <c r="F29">
-        <v>366.0430786307674</v>
+        <v>248.7863275876781</v>
       </c>
       <c r="G29">
-        <v>127.5453241531611</v>
+        <v>86.68797376456601</v>
       </c>
       <c r="H29">
-        <v>22.64055909275583</v>
+        <v>15.38797447636014</v>
       </c>
       <c r="I29">
-        <v>1194.126908774484</v>
+        <v>811.6051515545835</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>299.3828151934654</v>
+        <v>203.4797418201538</v>
       </c>
       <c r="C30">
-        <v>0.4381704096616175</v>
+        <v>0.2978086827514173</v>
       </c>
       <c r="D30">
-        <v>307.183323351402</v>
+        <v>208.7814669208989</v>
       </c>
       <c r="E30">
-        <v>21.35229732815888</v>
+        <v>14.51238924583323</v>
       </c>
       <c r="F30">
-        <v>333.4253785547584</v>
+        <v>226.6172488917464</v>
       </c>
       <c r="G30">
-        <v>74.86355982902937</v>
+        <v>50.88207155746264</v>
       </c>
       <c r="H30">
-        <v>13.9326517493882</v>
+        <v>9.469522754683162</v>
       </c>
       <c r="I30">
-        <v>1050.578196415864</v>
+        <v>714.0402498735294</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>352.0687637886902</v>
+        <v>239.2884879259663</v>
       </c>
       <c r="C31">
-        <v>0.3362703143914738</v>
+        <v>0.2285508495534132</v>
       </c>
       <c r="D31">
-        <v>221.1719928130094</v>
+        <v>150.3226561830472</v>
       </c>
       <c r="E31">
-        <v>20.01777874514895</v>
+        <v>13.60536491796866</v>
       </c>
       <c r="F31">
-        <v>326.1770007600897</v>
+        <v>221.6907869593171</v>
       </c>
       <c r="G31">
-        <v>116.4544264007123</v>
+        <v>79.14988908938631</v>
       </c>
       <c r="H31">
-        <v>26.12372203010288</v>
+        <v>17.75535516503093</v>
       </c>
       <c r="I31">
-        <v>1062.349954852145</v>
+        <v>722.0410910902698</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>402.2673929223374</v>
+        <v>273.4066923701313</v>
       </c>
       <c r="C32">
-        <v>0.4483604191886317</v>
+        <v>0.3047344660712176</v>
       </c>
       <c r="D32">
-        <v>266.2255469045483</v>
+        <v>180.9439379981123</v>
       </c>
       <c r="E32">
-        <v>44.03911323932768</v>
+        <v>29.93180281953104</v>
       </c>
       <c r="F32">
-        <v>315.3044340680868</v>
+        <v>214.3010940606733</v>
       </c>
       <c r="G32">
-        <v>94.2726308958148</v>
+        <v>64.07371973902706</v>
       </c>
       <c r="H32">
-        <v>15.67423321806173</v>
+        <v>10.65321309901856</v>
       </c>
       <c r="I32">
-        <v>1138.231711667365</v>
+        <v>773.6151945525648</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>441.1600245033621</v>
+        <v>299.8406165340787</v>
       </c>
       <c r="C33">
-        <v>0.3362703143914738</v>
+        <v>0.2285508495534132</v>
       </c>
       <c r="D33">
-        <v>200.6931045895826</v>
+        <v>136.4038917216539</v>
       </c>
       <c r="E33">
-        <v>74.73304064855606</v>
+        <v>50.79336236041632</v>
       </c>
       <c r="F33">
-        <v>257.3174117107375</v>
+        <v>174.8893986012391</v>
       </c>
       <c r="G33">
-        <v>47.1363154479074</v>
+        <v>32.03685986951353</v>
       </c>
       <c r="H33">
-        <v>12.19107028071468</v>
+        <v>8.285832410347766</v>
       </c>
       <c r="I33">
-        <v>1033.567237495252</v>
+        <v>702.4785123468026</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>460.3802203428214</v>
+        <v>312.903893010448</v>
       </c>
       <c r="C34">
-        <v>0.2343702191213303</v>
+        <v>0.1592930163554092</v>
       </c>
       <c r="D34">
-        <v>229.3635481023801</v>
+        <v>155.8901619676045</v>
       </c>
       <c r="E34">
-        <v>96.08533797671492</v>
+        <v>65.30575160624954</v>
       </c>
       <c r="F34">
-        <v>173.9610670720479</v>
+        <v>118.2350863783025</v>
       </c>
       <c r="G34">
-        <v>24.95451994300978</v>
+        <v>16.96069051915422</v>
       </c>
       <c r="H34">
-        <v>8.707907343367626</v>
+        <v>5.918451721676975</v>
       </c>
       <c r="I34">
-        <v>993.6869709994631</v>
+        <v>675.3733282197911</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>322.8992901029221</v>
+        <v>219.4630448030059</v>
       </c>
       <c r="C35">
-        <v>0.2139902000673015</v>
+        <v>0.1454414497158084</v>
       </c>
       <c r="D35">
-        <v>188.4057716555266</v>
+        <v>128.0526330448179</v>
       </c>
       <c r="E35">
-        <v>72.06400348253619</v>
+        <v>48.97931370468715</v>
       </c>
       <c r="F35">
-        <v>101.4772891253612</v>
+        <v>68.97046705400976</v>
       </c>
       <c r="G35">
-        <v>41.59086657168297</v>
+        <v>28.2678175319237</v>
       </c>
       <c r="H35">
-        <v>8.707907343367626</v>
+        <v>5.918451721676975</v>
       </c>
       <c r="I35">
-        <v>735.3591184814641</v>
+        <v>499.7971693098372</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>285.8156181303174</v>
+        <v>194.2586054838931</v>
       </c>
       <c r="C36">
-        <v>0.142660133378201</v>
+        <v>0.0969609664772056</v>
       </c>
       <c r="D36">
-        <v>126.9691069852462</v>
+        <v>86.2963396606382</v>
       </c>
       <c r="E36">
-        <v>77.4020778145759</v>
+        <v>52.60741101614549</v>
       </c>
       <c r="F36">
-        <v>79.73215574135529</v>
+        <v>54.19108125672195</v>
       </c>
       <c r="G36">
-        <v>38.81814213357077</v>
+        <v>26.38329636312879</v>
       </c>
       <c r="H36">
-        <v>12.19107028071468</v>
+        <v>8.285832410347766</v>
       </c>
       <c r="I36">
-        <v>621.0708312191584</v>
+        <v>422.1195271573525</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>228.6072705140435</v>
+        <v>155.3761472659936</v>
       </c>
       <c r="C37">
-        <v>0.142660133378201</v>
+        <v>0.0969609664772056</v>
       </c>
       <c r="D37">
-        <v>139.2564399193022</v>
+        <v>94.64759833747416</v>
       </c>
       <c r="E37">
-        <v>42.70459465631775</v>
+        <v>29.02477849166647</v>
       </c>
       <c r="F37">
-        <v>70.67168349801943</v>
+        <v>48.03300384118538</v>
       </c>
       <c r="G37">
-        <v>24.95451994300978</v>
+        <v>16.96069051915422</v>
       </c>
       <c r="H37">
-        <v>6.9663258746941</v>
+        <v>4.734761377341581</v>
       </c>
       <c r="I37">
-        <v>513.303494538765</v>
+        <v>348.8739407992927</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>175.9213219188189</v>
+        <v>119.5674011601811</v>
       </c>
       <c r="C38">
-        <v>0.2445602286483446</v>
+        <v>0.1662187996752096</v>
       </c>
       <c r="D38">
-        <v>81.91555289370717</v>
+        <v>55.67505784557304</v>
       </c>
       <c r="E38">
-        <v>21.35229732815888</v>
+        <v>14.51238924583323</v>
       </c>
       <c r="F38">
-        <v>52.55073901134779</v>
+        <v>35.7168490101122</v>
       </c>
       <c r="G38">
-        <v>24.95451994300978</v>
+        <v>16.96069051915422</v>
       </c>
       <c r="H38">
-        <v>3.48316293734705</v>
+        <v>2.36738068867079</v>
       </c>
       <c r="I38">
-        <v>360.4221542610379</v>
+        <v>244.9659872691997</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>109.8942962114987</v>
+        <v>74.69120432371204</v>
       </c>
       <c r="C39">
-        <v>0.1936101810132728</v>
+        <v>0.1315898830762076</v>
       </c>
       <c r="D39">
-        <v>57.34088702559502</v>
+        <v>38.97254049190114</v>
       </c>
       <c r="E39">
-        <v>9.341630081069507</v>
+        <v>6.349170295052041</v>
       </c>
       <c r="F39">
-        <v>27.18141673000748</v>
+        <v>18.47423224660976</v>
       </c>
       <c r="G39">
-        <v>16.63634662867318</v>
+        <v>11.30712701276948</v>
       </c>
       <c r="H39">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I39">
-        <v>222.3297683265307</v>
+        <v>151.109554597456</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>83.43826193836013</v>
+        <v>56.70998846800363</v>
       </c>
       <c r="C40">
-        <v>0.4177903906075888</v>
+        <v>0.2839571161118165</v>
       </c>
       <c r="D40">
-        <v>45.05355409153896</v>
+        <v>30.62128181506516</v>
       </c>
       <c r="E40">
-        <v>5.338074332039719</v>
+        <v>3.628097311458308</v>
       </c>
       <c r="F40">
-        <v>25.36932228134031</v>
+        <v>17.24261676350244</v>
       </c>
       <c r="G40">
-        <v>30.49996881923418</v>
+        <v>20.72973285674405</v>
       </c>
       <c r="H40">
-        <v>3.48316293734705</v>
+        <v>2.36738068867079</v>
       </c>
       <c r="I40">
-        <v>193.600134790468</v>
+        <v>131.5830550195562</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>59.69566707785114</v>
+        <v>40.57299987954726</v>
       </c>
       <c r="C41">
-        <v>0.3158902953374452</v>
+        <v>0.2146992829138124</v>
       </c>
       <c r="D41">
-        <v>28.67044351279751</v>
+        <v>19.48627024595057</v>
       </c>
       <c r="E41">
-        <v>1.33451858300993</v>
+        <v>0.9070243278645771</v>
       </c>
       <c r="F41">
-        <v>45.30236121667914</v>
+        <v>30.79038707768293</v>
       </c>
       <c r="G41">
-        <v>30.49996881923418</v>
+        <v>20.72973285674405</v>
       </c>
       <c r="H41">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I41">
-        <v>167.5604309735829</v>
+        <v>113.8848040150386</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>44.09339045523097</v>
+        <v>29.96869309284742</v>
       </c>
       <c r="C42">
-        <v>0.1834201714862585</v>
+        <v>0.1246640997564072</v>
       </c>
       <c r="D42">
-        <v>45.05355409153896</v>
+        <v>30.62128181506516</v>
       </c>
       <c r="E42">
-        <v>2.66903716601986</v>
+        <v>1.814048655729154</v>
       </c>
       <c r="F42">
-        <v>23.55722783267315</v>
+        <v>16.01100128039513</v>
       </c>
       <c r="G42">
-        <v>27.72724438112199</v>
+        <v>18.84521168794913</v>
       </c>
       <c r="I42">
-        <v>143.2838740980712</v>
+        <v>97.3849006317424</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>34.59635251102734</v>
+        <v>23.51389765746491</v>
       </c>
       <c r="C43">
-        <v>0.1630401524322297</v>
+        <v>0.1108125331168064</v>
       </c>
       <c r="D43">
-        <v>45.05355409153896</v>
+        <v>30.62128181506516</v>
       </c>
       <c r="E43">
-        <v>2.66903716601986</v>
+        <v>1.814048655729154</v>
       </c>
       <c r="F43">
-        <v>28.99351117867465</v>
+        <v>19.70584772971709</v>
       </c>
       <c r="G43">
-        <v>38.81814213357077</v>
+        <v>26.38329636312879</v>
       </c>
       <c r="H43">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I43">
-        <v>152.0352187019374</v>
+        <v>103.3328750985573</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>56.98222766522152</v>
+        <v>38.72877261229516</v>
       </c>
       <c r="C44">
-        <v>0.1324701238511867</v>
+        <v>0.09003518315740525</v>
       </c>
       <c r="D44">
-        <v>49.1493317362243</v>
+        <v>33.40503470734382</v>
       </c>
       <c r="E44">
-        <v>4.003555749029789</v>
+        <v>2.721072983593731</v>
       </c>
       <c r="F44">
-        <v>79.73215574135529</v>
+        <v>54.19108125672195</v>
       </c>
       <c r="G44">
-        <v>38.81814213357077</v>
+        <v>26.38329636312879</v>
       </c>
       <c r="I44">
-        <v>228.8178831492529</v>
+        <v>155.5192931062408</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>135.4458506804274</v>
+        <v>92.05767775700309</v>
       </c>
       <c r="C45">
-        <v>0.1120901047971579</v>
+        <v>0.07618361651780441</v>
       </c>
       <c r="D45">
-        <v>77.81977524902184</v>
+        <v>52.89130495329439</v>
       </c>
       <c r="E45">
-        <v>42.70459465631775</v>
+        <v>29.02477849166647</v>
       </c>
       <c r="F45">
-        <v>173.9610670720479</v>
+        <v>118.2350863783025</v>
       </c>
       <c r="G45">
-        <v>83.18173314336593</v>
+        <v>56.53563506384739</v>
       </c>
       <c r="H45">
-        <v>3.48316293734705</v>
+        <v>2.36738068867079</v>
       </c>
       <c r="I45">
-        <v>516.7082738433249</v>
+        <v>351.1880469493024</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>247.6013464024508</v>
+        <v>168.2857381367585</v>
       </c>
       <c r="C46">
-        <v>0.1120901047971579</v>
+        <v>0.07618361651780441</v>
       </c>
       <c r="D46">
-        <v>167.9268834320997</v>
+        <v>114.1338685834247</v>
       </c>
       <c r="E46">
-        <v>130.7828211349731</v>
+        <v>88.88838413072858</v>
       </c>
       <c r="F46">
-        <v>221.0755227373941</v>
+        <v>150.2570889390927</v>
       </c>
       <c r="G46">
-        <v>163.5907418486197</v>
+        <v>111.1867489588999</v>
       </c>
       <c r="H46">
-        <v>6.9663258746941</v>
+        <v>4.734761377341581</v>
       </c>
       <c r="I46">
-        <v>938.0557315350288</v>
+        <v>637.5627737427637</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>338.0493268234374</v>
+        <v>229.759980378497</v>
       </c>
       <c r="C47">
-        <v>0.1732301619592441</v>
+        <v>0.1177383164366068</v>
       </c>
       <c r="D47">
-        <v>212.9804375236386</v>
+        <v>144.7551503984899</v>
       </c>
       <c r="E47">
-        <v>104.0924494747745</v>
+        <v>70.747897573437</v>
       </c>
       <c r="F47">
-        <v>230.13599498073</v>
+        <v>156.4151663546293</v>
       </c>
       <c r="G47">
-        <v>133.0907730293855</v>
+        <v>90.45701610215586</v>
       </c>
       <c r="H47">
-        <v>12.19107028071468</v>
+        <v>8.285832410347766</v>
       </c>
       <c r="I47">
-        <v>1030.71328227464</v>
+        <v>700.5387815339933</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>373.0979192365697</v>
+        <v>253.5812492471705</v>
       </c>
       <c r="C48">
-        <v>0.2547502381753589</v>
+        <v>0.17314458299501</v>
       </c>
       <c r="D48">
-        <v>245.7466586811215</v>
+        <v>167.0251735367191</v>
       </c>
       <c r="E48">
-        <v>53.38074332039717</v>
+        <v>36.28097311458307</v>
       </c>
       <c r="F48">
-        <v>284.4988284407449</v>
+        <v>193.3636308478489</v>
       </c>
       <c r="G48">
-        <v>138.6362219056098</v>
+        <v>94.22605843974564</v>
       </c>
       <c r="H48">
-        <v>15.67423321806173</v>
+        <v>10.65321309901856</v>
       </c>
       <c r="I48">
-        <v>1111.28935504068</v>
+        <v>755.3034428680808</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>313.8544920608234</v>
+        <v>213.3156205788319</v>
       </c>
       <c r="C49">
-        <v>0.4993104668237037</v>
+        <v>0.3393633826702196</v>
       </c>
       <c r="D49">
-        <v>278.5128798386045</v>
+        <v>189.2951966749483</v>
       </c>
       <c r="E49">
-        <v>36.0320017412681</v>
+        <v>24.48965685234358</v>
       </c>
       <c r="F49">
-        <v>349.7342285927629</v>
+        <v>237.7017882397122</v>
       </c>
       <c r="G49">
-        <v>185.7725373535173</v>
+        <v>126.2629183092592</v>
       </c>
       <c r="H49">
-        <v>6.9663258746941</v>
+        <v>4.734761377341581</v>
       </c>
       <c r="I49">
-        <v>1171.371775928494</v>
+        <v>796.1393054151069</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_NOx.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>212.3935069452059</v>
+        <v>242.5771725478212</v>
       </c>
       <c r="C2">
-        <v>0.4501759157870261</v>
+        <v>0.6623506192559333</v>
       </c>
       <c r="D2">
-        <v>200.4302082440629</v>
+        <v>294.8253866565876</v>
       </c>
       <c r="E2">
-        <v>14.51238924583323</v>
+        <v>21.35229732815888</v>
       </c>
       <c r="F2">
-        <v>290.6612540133269</v>
+        <v>427.5419675688843</v>
       </c>
       <c r="G2">
-        <v>109.302227790105</v>
+        <v>160.7860807050263</v>
       </c>
       <c r="H2">
-        <v>9.469522754683162</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I2">
-        <v>837.219284909004</v>
+        <v>1161.677907175123</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>220.8462152534448</v>
+        <v>252.2311121209979</v>
       </c>
       <c r="C3">
-        <v>0.3947696492286227</v>
+        <v>0.5808305430398184</v>
       </c>
       <c r="D3">
-        <v>183.727690890391</v>
+        <v>270.2566044352055</v>
       </c>
       <c r="E3">
-        <v>14.51238924583323</v>
+        <v>21.35229732815888</v>
       </c>
       <c r="F3">
-        <v>227.8488643748537</v>
+        <v>335.1494237298457</v>
       </c>
       <c r="G3">
-        <v>94.22605843974564</v>
+        <v>138.6086902629537</v>
       </c>
       <c r="H3">
-        <v>13.02059378768935</v>
+        <v>19.15739615540878</v>
       </c>
       <c r="I3">
-        <v>754.5765816411863</v>
+        <v>1037.33635457561</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>232.8336924905838</v>
+        <v>265.922153697503</v>
       </c>
       <c r="C4">
-        <v>0.4224727825078245</v>
+        <v>0.6215905811478759</v>
       </c>
       <c r="D4">
-        <v>180.9439379981123</v>
+        <v>266.1618073983084</v>
       </c>
       <c r="E4">
-        <v>13.60536491796866</v>
+        <v>20.01777874514895</v>
       </c>
       <c r="F4">
-        <v>257.4076359694292</v>
+        <v>378.6282678893933</v>
       </c>
       <c r="G4">
-        <v>84.80345259577111</v>
+        <v>124.7478212366584</v>
       </c>
       <c r="H4">
-        <v>11.83690344335395</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I4">
-        <v>781.8534601977268</v>
+        <v>1073.515234234895</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>231.6042076457492</v>
+        <v>264.5179443050407</v>
       </c>
       <c r="C5">
-        <v>0.3116602493910181</v>
+        <v>0.4585504287156461</v>
       </c>
       <c r="D5">
-        <v>167.0251735367191</v>
+        <v>245.687822213823</v>
       </c>
       <c r="E5">
-        <v>13.60536491796866</v>
+        <v>20.01777874514895</v>
       </c>
       <c r="F5">
-        <v>259.870866935644</v>
+        <v>382.2515049026889</v>
       </c>
       <c r="G5">
-        <v>64.07371973902706</v>
+        <v>94.25390937880856</v>
       </c>
       <c r="H5">
-        <v>9.469522754683162</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I5">
-        <v>745.9605157791822</v>
+        <v>1021.120161723614</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>239.4421735315707</v>
+        <v>273.4697791819866</v>
       </c>
       <c r="C6">
-        <v>0.3739922992692216</v>
+        <v>0.5502605144587754</v>
       </c>
       <c r="D6">
-        <v>197.6464553517843</v>
+        <v>290.7305896196908</v>
       </c>
       <c r="E6">
-        <v>17.23346222942697</v>
+        <v>25.35585307718867</v>
       </c>
       <c r="F6">
-        <v>222.9224024424245</v>
+        <v>327.9029497032543</v>
       </c>
       <c r="G6">
-        <v>67.84276207661688</v>
+        <v>99.79825698932665</v>
       </c>
       <c r="H6">
-        <v>7.102142066012373</v>
+        <v>10.44948881204115</v>
       </c>
       <c r="I6">
-        <v>752.5633899971049</v>
+        <v>1028.257177897947</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>244.3601129109097</v>
+        <v>279.0866167518348</v>
       </c>
       <c r="C7">
-        <v>0.3255118160306189</v>
+        <v>0.4789304477696747</v>
       </c>
       <c r="D7">
-        <v>205.9977140286203</v>
+        <v>303.0149807303819</v>
       </c>
       <c r="E7">
-        <v>16.32643790156239</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F7">
-        <v>195.8268618140635</v>
+        <v>288.0473425570025</v>
       </c>
       <c r="G7">
-        <v>54.65111389505251</v>
+        <v>80.39304035251317</v>
       </c>
       <c r="H7">
-        <v>15.38797447636014</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I7">
-        <v>732.8757268425991</v>
+        <v>997.6828044264366</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>267.7203249627703</v>
+        <v>305.7665952086141</v>
       </c>
       <c r="C8">
-        <v>0.360140732629621</v>
+        <v>0.5298804954047467</v>
       </c>
       <c r="D8">
-        <v>194.8627024595056</v>
+        <v>286.6357925827937</v>
       </c>
       <c r="E8">
-        <v>30.83882714739562</v>
+        <v>45.3736318223376</v>
       </c>
       <c r="F8">
-        <v>213.0694785775659</v>
+        <v>313.4100016500719</v>
       </c>
       <c r="G8">
-        <v>35.80590220710337</v>
+        <v>52.67130229992242</v>
       </c>
       <c r="H8">
-        <v>13.02059378768935</v>
+        <v>19.15739615540878</v>
       </c>
       <c r="I8">
-        <v>755.6779698746599</v>
+        <v>1023.544600214553</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>295.3837339715528</v>
+        <v>337.3613065390103</v>
       </c>
       <c r="C9">
-        <v>0.3047344660712176</v>
+        <v>0.4483604191886317</v>
       </c>
       <c r="D9">
-        <v>186.5114437826697</v>
+        <v>274.3514014721023</v>
       </c>
       <c r="E9">
-        <v>56.23550832760378</v>
+        <v>82.74015214661563</v>
       </c>
       <c r="F9">
-        <v>199.5217082633854</v>
+        <v>293.482198076946</v>
       </c>
       <c r="G9">
-        <v>35.80590220710337</v>
+        <v>52.67130229992242</v>
       </c>
       <c r="H9">
-        <v>8.285832410347766</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I9">
-        <v>782.0488634287339</v>
+        <v>1053.2457912345</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>283.8573135512267</v>
+        <v>324.1968434846789</v>
       </c>
       <c r="C10">
-        <v>0.34628916599002</v>
+        <v>0.5095004763507178</v>
       </c>
       <c r="D10">
-        <v>231.0514900591281</v>
+        <v>339.8681540624552</v>
       </c>
       <c r="E10">
-        <v>68.02682458984329</v>
+        <v>100.0888937257447</v>
       </c>
       <c r="F10">
-        <v>107.1505470303367</v>
+        <v>157.6108100783599</v>
       </c>
       <c r="G10">
-        <v>26.38329636312879</v>
+        <v>38.81043327362704</v>
       </c>
       <c r="H10">
-        <v>3.551071033006187</v>
+        <v>5.224744406020576</v>
       </c>
       <c r="I10">
-        <v>720.3668317926597</v>
+        <v>966.3093795072371</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>205.3239690874061</v>
+        <v>234.5029685411644</v>
       </c>
       <c r="C11">
-        <v>0.2839571161118165</v>
+        <v>0.4177903906075888</v>
       </c>
       <c r="D11">
-        <v>164.2414206444404</v>
+        <v>241.5930251769261</v>
       </c>
       <c r="E11">
-        <v>54.42145967187463</v>
+        <v>80.07111498059578</v>
       </c>
       <c r="F11">
-        <v>55.42269673982926</v>
+        <v>81.52283279915164</v>
       </c>
       <c r="G11">
-        <v>22.61425402553897</v>
+        <v>33.26608566310889</v>
       </c>
       <c r="H11">
-        <v>3.551071033006187</v>
+        <v>5.224744406020576</v>
       </c>
       <c r="I11">
-        <v>505.8588283182073</v>
+        <v>676.5985619575749</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>171.6668214600543</v>
+        <v>196.0627364225155</v>
       </c>
       <c r="C12">
-        <v>0.3116602493910181</v>
+        <v>0.4585504287156461</v>
       </c>
       <c r="D12">
-        <v>144.7551503984899</v>
+        <v>212.9294459186466</v>
       </c>
       <c r="E12">
-        <v>42.63014340963512</v>
+        <v>62.72237340146667</v>
       </c>
       <c r="F12">
-        <v>49.26461932429268</v>
+        <v>72.46474026591258</v>
       </c>
       <c r="G12">
-        <v>28.2678175319237</v>
+        <v>41.58260707888614</v>
       </c>
       <c r="H12">
-        <v>4.734761377341581</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I12">
-        <v>441.6309737511283</v>
+        <v>593.1867793908372</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>141.6981283672069</v>
+        <v>161.8351324812526</v>
       </c>
       <c r="C13">
-        <v>0.2077734995940121</v>
+        <v>0.3057002858104307</v>
       </c>
       <c r="D13">
-        <v>116.9176214757033</v>
+        <v>171.9814755496761</v>
       </c>
       <c r="E13">
-        <v>31.7458514752602</v>
+        <v>46.70815040534751</v>
       </c>
       <c r="F13">
-        <v>24.63230966214634</v>
+        <v>36.23237013295629</v>
       </c>
       <c r="G13">
-        <v>13.19164818156439</v>
+        <v>19.40521663681352</v>
       </c>
       <c r="H13">
-        <v>2.36738068867079</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I13">
-        <v>330.760713350146</v>
+        <v>439.9512084292035</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>108.5020375566682</v>
+        <v>123.9214788847769</v>
       </c>
       <c r="C14">
-        <v>0.1869961496346108</v>
+        <v>0.2751302572293877</v>
       </c>
       <c r="D14">
-        <v>61.24256363013033</v>
+        <v>90.08553481173519</v>
       </c>
       <c r="E14">
-        <v>14.51238924583323</v>
+        <v>21.35229732815888</v>
       </c>
       <c r="F14">
-        <v>30.79038707768293</v>
+        <v>45.29046266619535</v>
       </c>
       <c r="G14">
-        <v>9.422605843974566</v>
+        <v>13.86086902629538</v>
       </c>
       <c r="H14">
-        <v>3.551071033006187</v>
+        <v>5.224744406020576</v>
       </c>
       <c r="I14">
-        <v>228.20805053693</v>
+        <v>300.0105173804117</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>63.77952632580352</v>
+        <v>72.84336223396942</v>
       </c>
       <c r="C15">
-        <v>0.08310939983760481</v>
+        <v>0.1222801143241723</v>
       </c>
       <c r="D15">
-        <v>33.40503470734382</v>
+        <v>49.1375644427646</v>
       </c>
       <c r="E15">
-        <v>9.070243278645767</v>
+        <v>13.34518583009929</v>
       </c>
       <c r="F15">
-        <v>24.63230966214634</v>
+        <v>36.23237013295629</v>
       </c>
       <c r="G15">
-        <v>13.19164818156439</v>
+        <v>19.40521663681352</v>
       </c>
       <c r="H15">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I15">
-        <v>145.3455618996769</v>
+        <v>192.8275608596008</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>51.33099227185152</v>
+        <v>58.6257421352911</v>
       </c>
       <c r="C16">
-        <v>0.1592930163554092</v>
+        <v>0.2343702191213303</v>
       </c>
       <c r="D16">
-        <v>38.97254049190114</v>
+        <v>57.32715851655874</v>
       </c>
       <c r="E16">
-        <v>2.721072983593731</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F16">
-        <v>13.54777031418049</v>
+        <v>19.92780357312597</v>
       </c>
       <c r="G16">
-        <v>15.07616935035931</v>
+        <v>22.1773904420726</v>
       </c>
       <c r="H16">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I16">
-        <v>122.991528772577</v>
+        <v>164.037602103873</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>32.58134838812133</v>
+        <v>37.21154890024469</v>
       </c>
       <c r="C17">
-        <v>0.2146992829138124</v>
+        <v>0.3158902953374452</v>
       </c>
       <c r="D17">
-        <v>19.48627024595057</v>
+        <v>28.66357925827937</v>
       </c>
       <c r="E17">
-        <v>0.9070243278645771</v>
+        <v>1.33451858300993</v>
       </c>
       <c r="F17">
-        <v>28.32715611146831</v>
+        <v>41.66722565289973</v>
       </c>
       <c r="G17">
-        <v>15.07616935035931</v>
+        <v>22.1773904420726</v>
       </c>
       <c r="I17">
-        <v>96.59266770667791</v>
+        <v>131.3701531318438</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>22.28441281263015</v>
+        <v>25.45129523837488</v>
       </c>
       <c r="C18">
-        <v>0.1869961496346108</v>
+        <v>0.2751302572293877</v>
       </c>
       <c r="D18">
-        <v>19.48627024595057</v>
+        <v>28.66357925827937</v>
       </c>
       <c r="E18">
-        <v>0.9070243278645771</v>
+        <v>1.33451858300993</v>
       </c>
       <c r="F18">
-        <v>14.77938579728781</v>
+        <v>21.73942207977378</v>
       </c>
       <c r="G18">
-        <v>20.72973285674405</v>
+        <v>30.49391185784982</v>
       </c>
       <c r="I18">
-        <v>78.37382219011175</v>
+        <v>107.9578572745172</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>23.05284084065188</v>
+        <v>26.32892610866366</v>
       </c>
       <c r="C19">
-        <v>0.1592930163554092</v>
+        <v>0.2343702191213303</v>
       </c>
       <c r="D19">
-        <v>27.83752892278652</v>
+        <v>40.94797036897051</v>
       </c>
       <c r="E19">
-        <v>4.535121639322884</v>
+        <v>6.672592915049647</v>
       </c>
       <c r="F19">
-        <v>25.86392514525367</v>
+        <v>38.04398863960412</v>
       </c>
       <c r="G19">
-        <v>16.96069051915422</v>
+        <v>24.94956424733166</v>
       </c>
       <c r="I19">
-        <v>98.40940008352456</v>
+        <v>137.1774124987409</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>39.49720064031689</v>
+        <v>45.11022673284375</v>
       </c>
       <c r="C20">
-        <v>0.0969609664772056</v>
+        <v>0.142660133378201</v>
       </c>
       <c r="D20">
-        <v>41.75629338417978</v>
+        <v>61.42195555345576</v>
       </c>
       <c r="E20">
-        <v>2.721072983593731</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F20">
-        <v>51.72785029050733</v>
+        <v>76.08797727920823</v>
       </c>
       <c r="G20">
-        <v>20.72973285674405</v>
+        <v>30.49391185784982</v>
       </c>
       <c r="I20">
-        <v>156.529111121819</v>
+        <v>217.2602873057655</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>91.59662094019009</v>
+        <v>104.6135997384236</v>
       </c>
       <c r="C21">
-        <v>0.08310939983760481</v>
+        <v>0.1222801143241723</v>
       </c>
       <c r="D21">
-        <v>97.43135122975282</v>
+        <v>143.3178962913968</v>
       </c>
       <c r="E21">
-        <v>34.46692445885393</v>
+        <v>50.71170615437733</v>
       </c>
       <c r="F21">
-        <v>88.67631478372687</v>
+        <v>130.4365324786427</v>
       </c>
       <c r="G21">
-        <v>54.65111389505251</v>
+        <v>80.39304035251317</v>
       </c>
       <c r="H21">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I21">
-        <v>368.0891250517492</v>
+        <v>511.3366365983512</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>163.0604275462109</v>
+        <v>186.233270675281</v>
       </c>
       <c r="C22">
-        <v>0.2770313327920161</v>
+        <v>0.4076003810805743</v>
       </c>
       <c r="D22">
-        <v>175.3764322135551</v>
+        <v>257.9722133245142</v>
       </c>
       <c r="E22">
-        <v>88.88838413072858</v>
+        <v>130.7828211349731</v>
       </c>
       <c r="F22">
-        <v>147.7938579728781</v>
+        <v>217.3942207977378</v>
       </c>
       <c r="G22">
-        <v>84.80345259577111</v>
+        <v>124.7478212366584</v>
       </c>
       <c r="H22">
-        <v>5.918451721676975</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I22">
-        <v>666.1180375136128</v>
+        <v>926.2458548936128</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>225.7641546327838</v>
+        <v>257.8479496908463</v>
       </c>
       <c r="C23">
-        <v>0.138515666396008</v>
+        <v>0.2038001905402872</v>
       </c>
       <c r="D23">
-        <v>116.9176214757033</v>
+        <v>171.9814755496761</v>
       </c>
       <c r="E23">
-        <v>74.37599488489529</v>
+        <v>109.4305238068142</v>
       </c>
       <c r="F23">
-        <v>174.8893986012391</v>
+        <v>257.2498279439898</v>
       </c>
       <c r="G23">
-        <v>77.26536792059139</v>
+        <v>113.6591260156221</v>
       </c>
       <c r="H23">
-        <v>11.83690344335395</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I23">
-        <v>681.187956624963</v>
+        <v>927.788517884224</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>264.1855560338705</v>
+        <v>301.7294932052856</v>
       </c>
       <c r="C24">
-        <v>0.1662187996752096</v>
+        <v>0.2445602286483446</v>
       </c>
       <c r="D24">
-        <v>144.7551503984899</v>
+        <v>212.9294459186466</v>
       </c>
       <c r="E24">
-        <v>32.65287580312477</v>
+        <v>48.04266898835746</v>
       </c>
       <c r="F24">
-        <v>185.973937949205</v>
+        <v>273.55439450382</v>
       </c>
       <c r="G24">
-        <v>107.41770662131</v>
+        <v>158.0139068997674</v>
       </c>
       <c r="H24">
-        <v>9.469522754683162</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I24">
-        <v>744.6209683603583</v>
+        <v>1008.447121493914</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>213.3156205788319</v>
+        <v>243.6303295921678</v>
       </c>
       <c r="C25">
-        <v>0.3393633826702196</v>
+        <v>0.4993104668237037</v>
       </c>
       <c r="D25">
-        <v>189.2951966749483</v>
+        <v>278.4461985089993</v>
       </c>
       <c r="E25">
-        <v>24.48965685234358</v>
+        <v>36.0320017412681</v>
       </c>
       <c r="F25">
-        <v>237.7017882397122</v>
+        <v>349.6423717830282</v>
       </c>
       <c r="G25">
-        <v>126.2629183092592</v>
+        <v>185.735644952358</v>
       </c>
       <c r="H25">
-        <v>4.734761377341581</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I25">
-        <v>796.1393054151069</v>
+        <v>1100.952182919339</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>218.3872455637754</v>
+        <v>249.4226933360736</v>
       </c>
       <c r="C26">
-        <v>0.3739922992692216</v>
+        <v>0.5502605144587754</v>
       </c>
       <c r="D26">
-        <v>180.9439379981123</v>
+        <v>266.1618073983084</v>
       </c>
       <c r="E26">
-        <v>14.51238924583323</v>
+        <v>21.35229732815888</v>
       </c>
       <c r="F26">
-        <v>310.3671017430439</v>
+        <v>456.5278636752493</v>
       </c>
       <c r="G26">
-        <v>130.031960646849</v>
+        <v>191.2799925628762</v>
       </c>
       <c r="H26">
-        <v>11.83690344335395</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I26">
-        <v>866.4535309402371</v>
+        <v>1202.71072950186</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>214.5451054236668</v>
+        <v>245.0345389846298</v>
       </c>
       <c r="C27">
-        <v>0.4501759157870261</v>
+        <v>0.6623506192559333</v>
       </c>
       <c r="D27">
-        <v>161.4576677521618</v>
+        <v>237.498228140029</v>
       </c>
       <c r="E27">
-        <v>11.7913162622395</v>
+        <v>17.34874157912908</v>
       </c>
       <c r="F27">
-        <v>257.4076359694292</v>
+        <v>378.6282678893933</v>
       </c>
       <c r="G27">
-        <v>120.6093548028745</v>
+        <v>177.4191235365808</v>
       </c>
       <c r="H27">
-        <v>10.65321309901856</v>
+        <v>15.67423321806173</v>
       </c>
       <c r="I27">
-        <v>776.9144692251772</v>
+        <v>1072.26548396708</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>219.0019879861929</v>
+        <v>250.1247980323047</v>
       </c>
       <c r="C28">
-        <v>0.34628916599002</v>
+        <v>0.5095004763507178</v>
       </c>
       <c r="D28">
-        <v>141.9713975062113</v>
+        <v>208.8346488817497</v>
       </c>
       <c r="E28">
-        <v>17.23346222942697</v>
+        <v>25.35585307718867</v>
       </c>
       <c r="F28">
-        <v>217.9959405099952</v>
+        <v>320.6564756766633</v>
       </c>
       <c r="G28">
-        <v>88.57249493336084</v>
+        <v>130.2921688471766</v>
       </c>
       <c r="H28">
-        <v>15.38797447636014</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I28">
-        <v>700.5095468075373</v>
+        <v>958.4140040841893</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>231.7578932513535</v>
+        <v>264.6934704790986</v>
       </c>
       <c r="C29">
-        <v>0.3116602493910181</v>
+        <v>0.4585504287156461</v>
       </c>
       <c r="D29">
-        <v>205.9977140286203</v>
+        <v>303.0149807303819</v>
       </c>
       <c r="E29">
-        <v>22.67560819661443</v>
+        <v>33.36296457524825</v>
       </c>
       <c r="F29">
-        <v>248.7863275876781</v>
+        <v>365.9469383428586</v>
       </c>
       <c r="G29">
-        <v>86.68797376456601</v>
+        <v>127.5199950419175</v>
       </c>
       <c r="H29">
-        <v>15.38797447636014</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I29">
-        <v>811.6051515545835</v>
+        <v>1117.637458690976</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>203.4797418201538</v>
+        <v>232.3966544524713</v>
       </c>
       <c r="C30">
-        <v>0.2978086827514173</v>
+        <v>0.4381704096616175</v>
       </c>
       <c r="D30">
-        <v>208.7814669208989</v>
+        <v>307.1097777672788</v>
       </c>
       <c r="E30">
-        <v>14.51238924583323</v>
+        <v>21.35229732815888</v>
       </c>
       <c r="F30">
-        <v>226.6172488917464</v>
+        <v>333.3378052231978</v>
       </c>
       <c r="G30">
-        <v>50.88207155746264</v>
+        <v>74.84869274199508</v>
       </c>
       <c r="H30">
-        <v>9.469522754683162</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I30">
-        <v>714.0402498735294</v>
+        <v>983.4160496721518</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>239.2884879259663</v>
+        <v>273.2942530079288</v>
       </c>
       <c r="C31">
-        <v>0.2285508495534132</v>
+        <v>0.3362703143914738</v>
       </c>
       <c r="D31">
-        <v>150.3226561830472</v>
+        <v>221.1190399924407</v>
       </c>
       <c r="E31">
-        <v>13.60536491796866</v>
+        <v>20.01777874514895</v>
       </c>
       <c r="F31">
-        <v>221.6907869593171</v>
+        <v>326.0913311966066</v>
       </c>
       <c r="G31">
-        <v>79.14988908938631</v>
+        <v>116.4312998208812</v>
       </c>
       <c r="H31">
-        <v>17.75535516503093</v>
+        <v>26.12372203010288</v>
       </c>
       <c r="I31">
-        <v>722.0410910902698</v>
+        <v>983.4136951075005</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>273.4066923701313</v>
+        <v>312.2610636487506</v>
       </c>
       <c r="C32">
-        <v>0.3047344660712176</v>
+        <v>0.4483604191886317</v>
       </c>
       <c r="D32">
-        <v>180.9439379981123</v>
+        <v>266.1618073983084</v>
       </c>
       <c r="E32">
-        <v>29.93180281953104</v>
+        <v>44.03911323932768</v>
       </c>
       <c r="F32">
-        <v>214.3010940606733</v>
+        <v>315.2216201567198</v>
       </c>
       <c r="G32">
-        <v>64.07371973902706</v>
+        <v>94.25390937880856</v>
       </c>
       <c r="H32">
-        <v>10.65321309901856</v>
+        <v>15.67423321806173</v>
       </c>
       <c r="I32">
-        <v>773.6151945525648</v>
+        <v>1048.060107459165</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>299.8406165340787</v>
+        <v>342.4515655866853</v>
       </c>
       <c r="C33">
-        <v>0.2285508495534132</v>
+        <v>0.3362703143914738</v>
       </c>
       <c r="D33">
-        <v>136.4038917216539</v>
+        <v>200.6450548079555</v>
       </c>
       <c r="E33">
-        <v>50.79336236041632</v>
+        <v>74.73304064855606</v>
       </c>
       <c r="F33">
-        <v>174.8893986012391</v>
+        <v>257.2498279439898</v>
       </c>
       <c r="G33">
-        <v>32.03685986951353</v>
+        <v>47.12695468940428</v>
       </c>
       <c r="H33">
-        <v>8.285832410347766</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I33">
-        <v>702.4785123468026</v>
+        <v>934.7337842716972</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>312.903893010448</v>
+        <v>357.3712903815947</v>
       </c>
       <c r="C34">
-        <v>0.1592930163554092</v>
+        <v>0.2343702191213303</v>
       </c>
       <c r="D34">
-        <v>155.8901619676045</v>
+        <v>229.308634066235</v>
       </c>
       <c r="E34">
-        <v>65.30575160624954</v>
+        <v>96.08533797671492</v>
       </c>
       <c r="F34">
-        <v>118.2350863783025</v>
+        <v>173.9153766381902</v>
       </c>
       <c r="G34">
-        <v>16.96069051915422</v>
+        <v>24.94956424733166</v>
       </c>
       <c r="H34">
-        <v>5.918451721676975</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I34">
-        <v>675.3733282197911</v>
+        <v>890.5724808725555</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>219.4630448030059</v>
+        <v>250.6513765544781</v>
       </c>
       <c r="C35">
-        <v>0.1454414497158084</v>
+        <v>0.2139902000673015</v>
       </c>
       <c r="D35">
-        <v>128.0526330448179</v>
+        <v>188.3606636972643</v>
       </c>
       <c r="E35">
-        <v>48.97931370468715</v>
+        <v>72.06400348253619</v>
       </c>
       <c r="F35">
-        <v>68.97046705400976</v>
+        <v>101.4506363722776</v>
       </c>
       <c r="G35">
-        <v>28.2678175319237</v>
+        <v>41.58260707888614</v>
       </c>
       <c r="H35">
-        <v>5.918451721676975</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I35">
-        <v>499.7971693098372</v>
+        <v>663.0311847288773</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>194.2586054838931</v>
+        <v>221.8650840090057</v>
       </c>
       <c r="C36">
-        <v>0.0969609664772056</v>
+        <v>0.142660133378201</v>
       </c>
       <c r="D36">
-        <v>86.2963396606382</v>
+        <v>126.9387081438086</v>
       </c>
       <c r="E36">
-        <v>52.60741101614549</v>
+        <v>77.4020778145759</v>
       </c>
       <c r="F36">
-        <v>54.19108125672195</v>
+        <v>79.71121429250387</v>
       </c>
       <c r="G36">
-        <v>26.38329636312879</v>
+        <v>38.81043327362704</v>
       </c>
       <c r="H36">
-        <v>8.285832410347766</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I36">
-        <v>422.1195271573525</v>
+        <v>557.061247947614</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>155.3761472659936</v>
+        <v>177.4569619723929</v>
       </c>
       <c r="C37">
-        <v>0.0969609664772056</v>
+        <v>0.142660133378201</v>
       </c>
       <c r="D37">
-        <v>94.64759833747416</v>
+        <v>139.2230992544996</v>
       </c>
       <c r="E37">
-        <v>29.02477849166647</v>
+        <v>42.70459465631775</v>
       </c>
       <c r="F37">
-        <v>48.03300384118538</v>
+        <v>70.65312175926472</v>
       </c>
       <c r="G37">
-        <v>16.96069051915422</v>
+        <v>24.94956424733166</v>
       </c>
       <c r="H37">
-        <v>4.734761377341581</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I37">
-        <v>348.8739407992927</v>
+        <v>462.096327897879</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>119.5674011601811</v>
+        <v>136.5593634169355</v>
       </c>
       <c r="C38">
-        <v>0.1662187996752096</v>
+        <v>0.2445602286483446</v>
       </c>
       <c r="D38">
-        <v>55.67505784557304</v>
+        <v>81.89594073794102</v>
       </c>
       <c r="E38">
-        <v>14.51238924583323</v>
+        <v>21.35229732815888</v>
       </c>
       <c r="F38">
-        <v>35.7168490101122</v>
+        <v>52.53693669278663</v>
       </c>
       <c r="G38">
-        <v>16.96069051915422</v>
+        <v>24.94956424733166</v>
       </c>
       <c r="H38">
-        <v>2.36738068867079</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I38">
-        <v>244.9659872691997</v>
+        <v>321.021825589149</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>74.69120432371204</v>
+        <v>85.30572059207026</v>
       </c>
       <c r="C39">
-        <v>0.1315898830762076</v>
+        <v>0.1936101810132728</v>
       </c>
       <c r="D39">
-        <v>38.97254049190114</v>
+        <v>57.32715851655874</v>
       </c>
       <c r="E39">
-        <v>6.349170295052041</v>
+        <v>9.341630081069507</v>
       </c>
       <c r="F39">
-        <v>18.47423224660976</v>
+        <v>27.17427759971723</v>
       </c>
       <c r="G39">
-        <v>11.30712701276948</v>
+        <v>16.63304283155444</v>
       </c>
       <c r="H39">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I39">
-        <v>151.109554597456</v>
+        <v>197.7170212706569</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>56.70998846800363</v>
+        <v>64.76915822731259</v>
       </c>
       <c r="C40">
-        <v>0.2839571161118165</v>
+        <v>0.4177903906075888</v>
       </c>
       <c r="D40">
-        <v>30.62128181506516</v>
+        <v>45.04276740586759</v>
       </c>
       <c r="E40">
-        <v>3.628097311458308</v>
+        <v>5.338074332039719</v>
       </c>
       <c r="F40">
-        <v>17.24261676350244</v>
+        <v>25.3626590930694</v>
       </c>
       <c r="G40">
-        <v>20.72973285674405</v>
+        <v>30.49391185784982</v>
       </c>
       <c r="H40">
-        <v>2.36738068867079</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I40">
-        <v>131.5830550195562</v>
+        <v>174.9075242440938</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>40.57299987954726</v>
+        <v>46.33890995124803</v>
       </c>
       <c r="C41">
-        <v>0.2146992829138124</v>
+        <v>0.3158902953374452</v>
       </c>
       <c r="D41">
-        <v>19.48627024595057</v>
+        <v>28.66357925827937</v>
       </c>
       <c r="E41">
-        <v>0.9070243278645771</v>
+        <v>1.33451858300993</v>
       </c>
       <c r="F41">
-        <v>30.79038707768293</v>
+        <v>45.29046266619535</v>
       </c>
       <c r="G41">
-        <v>20.72973285674405</v>
+        <v>30.49391185784982</v>
       </c>
       <c r="H41">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I41">
-        <v>113.8848040150386</v>
+        <v>154.1788540805935</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>29.96869309284742</v>
+        <v>34.22760394126277</v>
       </c>
       <c r="C42">
-        <v>0.1246640997564072</v>
+        <v>0.1834201714862585</v>
       </c>
       <c r="D42">
-        <v>30.62128181506516</v>
+        <v>45.04276740586759</v>
       </c>
       <c r="E42">
-        <v>1.814048655729154</v>
+        <v>2.66903716601986</v>
       </c>
       <c r="F42">
-        <v>16.01100128039513</v>
+        <v>23.5510405864216</v>
       </c>
       <c r="G42">
-        <v>18.84521168794913</v>
+        <v>27.72173805259076</v>
       </c>
       <c r="I42">
-        <v>97.3849006317424</v>
+        <v>133.3956073236488</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>23.51389765746491</v>
+        <v>26.85550463083693</v>
       </c>
       <c r="C43">
-        <v>0.1108125331168064</v>
+        <v>0.1630401524322297</v>
       </c>
       <c r="D43">
-        <v>30.62128181506516</v>
+        <v>45.04276740586759</v>
       </c>
       <c r="E43">
-        <v>1.814048655729154</v>
+        <v>2.66903716601986</v>
       </c>
       <c r="F43">
-        <v>19.70584772971709</v>
+        <v>28.98589610636504</v>
       </c>
       <c r="G43">
-        <v>26.38329636312879</v>
+        <v>38.81043327362704</v>
       </c>
       <c r="H43">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I43">
-        <v>103.3328750985573</v>
+        <v>144.2682602038222</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>38.72877261229516</v>
+        <v>44.23259586255494</v>
       </c>
       <c r="C44">
-        <v>0.09003518315740525</v>
+        <v>0.1324701238511867</v>
       </c>
       <c r="D44">
-        <v>33.40503470734382</v>
+        <v>49.1375644427646</v>
       </c>
       <c r="E44">
-        <v>2.721072983593731</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F44">
-        <v>54.19108125672195</v>
+        <v>79.71121429250387</v>
       </c>
       <c r="G44">
-        <v>26.38329636312879</v>
+        <v>38.81043327362704</v>
       </c>
       <c r="I44">
-        <v>155.5192931062408</v>
+        <v>216.0278337443314</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>92.05767775700309</v>
+        <v>105.1401782605969</v>
       </c>
       <c r="C45">
-        <v>0.07618361651780441</v>
+        <v>0.1120901047971579</v>
       </c>
       <c r="D45">
-        <v>52.89130495329439</v>
+        <v>77.80114370104396</v>
       </c>
       <c r="E45">
-        <v>29.02477849166647</v>
+        <v>42.70459465631775</v>
       </c>
       <c r="F45">
-        <v>118.2350863783025</v>
+        <v>173.9153766381902</v>
       </c>
       <c r="G45">
-        <v>56.53563506384739</v>
+        <v>83.16521415777228</v>
       </c>
       <c r="H45">
-        <v>2.36738068867079</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I45">
-        <v>351.1880469493024</v>
+        <v>486.3217604560654</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>168.2857381367585</v>
+        <v>192.2011605932448</v>
       </c>
       <c r="C46">
-        <v>0.07618361651780441</v>
+        <v>0.1120901047971579</v>
       </c>
       <c r="D46">
-        <v>114.1338685834247</v>
+        <v>167.8866785127792</v>
       </c>
       <c r="E46">
-        <v>88.88838413072858</v>
+        <v>130.7828211349731</v>
       </c>
       <c r="F46">
-        <v>150.2570889390927</v>
+        <v>221.0174578110334</v>
       </c>
       <c r="G46">
-        <v>111.1867489588999</v>
+        <v>163.5582545102855</v>
       </c>
       <c r="H46">
-        <v>4.734761377341581</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I46">
-        <v>637.5627737427637</v>
+        <v>882.5247885418073</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>229.759980378497</v>
+        <v>262.4116302163478</v>
       </c>
       <c r="C47">
-        <v>0.1177383164366068</v>
+        <v>0.1732301619592441</v>
       </c>
       <c r="D47">
-        <v>144.7551503984899</v>
+        <v>212.9294459186466</v>
       </c>
       <c r="E47">
-        <v>70.747897573437</v>
+        <v>104.0924494747745</v>
       </c>
       <c r="F47">
-        <v>156.4151663546293</v>
+        <v>230.0755503442725</v>
       </c>
       <c r="G47">
-        <v>90.45701610215586</v>
+        <v>133.0643426524356</v>
       </c>
       <c r="H47">
-        <v>8.285832410347766</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I47">
-        <v>700.5387815339933</v>
+        <v>954.9377190491509</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>253.5812492471705</v>
+        <v>289.6181871953004</v>
       </c>
       <c r="C48">
-        <v>0.17314458299501</v>
+        <v>0.2547502381753589</v>
       </c>
       <c r="D48">
-        <v>167.0251735367191</v>
+        <v>245.687822213823</v>
       </c>
       <c r="E48">
-        <v>36.28097311458307</v>
+        <v>53.38074332039717</v>
       </c>
       <c r="F48">
-        <v>193.3636308478489</v>
+        <v>284.4241055437068</v>
       </c>
       <c r="G48">
-        <v>94.22605843974564</v>
+        <v>138.6086902629537</v>
       </c>
       <c r="H48">
-        <v>10.65321309901856</v>
+        <v>15.67423321806173</v>
       </c>
       <c r="I48">
-        <v>755.3034428680808</v>
+        <v>1027.648531992418</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>213.3156205788319</v>
+        <v>243.6303295921678</v>
       </c>
       <c r="C49">
-        <v>0.3393633826702196</v>
+        <v>0.4993104668237037</v>
       </c>
       <c r="D49">
-        <v>189.2951966749483</v>
+        <v>278.4461985089993</v>
       </c>
       <c r="E49">
-        <v>24.48965685234358</v>
+        <v>36.0320017412681</v>
       </c>
       <c r="F49">
-        <v>237.7017882397122</v>
+        <v>349.6423717830282</v>
       </c>
       <c r="G49">
-        <v>126.2629183092592</v>
+        <v>185.735644952358</v>
       </c>
       <c r="H49">
-        <v>4.734761377341581</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I49">
-        <v>796.1393054151069</v>
+        <v>1100.952182919339</v>
       </c>
     </row>
   </sheetData>
